--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_22.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_22.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>933487.005785399</v>
+        <v>961630.0199893854</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13360835.96253918</v>
+        <v>12157779.51246666</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3999173.134613249</v>
+        <v>2820057.507897159</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6787064.223866303</v>
+        <v>7276621.357578244</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +661,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>209.3371091232755</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>141.5617824916602</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400.2956717864458</v>
@@ -719,13 +721,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -865,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W4" t="n">
-        <v>209.7612727945907</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -902,19 +904,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>22.792911107614</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>293.8266435416882</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>184.267585302921</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
         <v>170.2528374898731</v>
@@ -1102,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>181.2635869532363</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
@@ -1120,7 +1122,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>133.7682651318491</v>
+        <v>186.5146679205617</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1294,19 +1296,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -1339,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>167.8164790129224</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>154.8833258811978</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
@@ -1373,22 +1375,22 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>242.9794051018652</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1430,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>178.6464323367727</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -1525,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>4.378995526348206</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1619,13 +1621,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>184.7832250004116</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>178.6464323367727</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1999,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>24.86535359721329</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>111.6184430578616</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
@@ -2053,10 +2055,10 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -2065,10 +2067,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2242,22 +2244,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429501</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2476,16 +2478,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
@@ -2521,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2542,7 +2544,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>208.6277241346148</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2716,22 +2718,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>51.58543740429501</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>154.8833258811978</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -2962,10 +2964,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>11.12043047005107</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3004,10 +3006,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>260.444681387164</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>128.2011474413824</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
@@ -3193,19 +3195,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>104.9037564455526</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3253,7 +3255,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -3430,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>103.0767555432929</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
@@ -3521,7 +3523,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3673,13 +3675,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>11.12043047005107</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>180.0196592840957</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3740,25 +3742,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>186.1320522797926</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>91.31167109570151</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3803,7 +3805,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3895,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
@@ -3913,7 +3915,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>125.4203831793925</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3964,7 +3966,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>157.086062247445</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>168.6518528275314</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>153.3573077796842</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4138,22 +4140,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>96.44420510686376</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1361.445359938054</v>
+        <v>1020.453694912912</v>
       </c>
       <c r="C2" t="n">
-        <v>934.5446299513537</v>
+        <v>809.0020695358658</v>
       </c>
       <c r="D2" t="n">
-        <v>934.5446299513537</v>
+        <v>809.0020695358658</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5446299513537</v>
+        <v>809.0020695358658</v>
       </c>
       <c r="F2" t="n">
-        <v>791.5529304648283</v>
+        <v>809.0020695358658</v>
       </c>
       <c r="G2" t="n">
-        <v>387.2138680542769</v>
+        <v>404.6630071253144</v>
       </c>
       <c r="H2" t="n">
-        <v>89.34548952831176</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="I2" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J2" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K2" t="n">
-        <v>728.2502693850971</v>
+        <v>80.53897563800069</v>
       </c>
       <c r="L2" t="n">
-        <v>728.2502693850971</v>
+        <v>970.2737227554036</v>
       </c>
       <c r="M2" t="n">
-        <v>1402.051920498411</v>
+        <v>1860.008469872806</v>
       </c>
       <c r="N2" t="n">
-        <v>1474.987448089748</v>
+        <v>2749.743216990209</v>
       </c>
       <c r="O2" t="n">
-        <v>2148.789099203062</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="P2" t="n">
-        <v>2148.789099203062</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="Q2" t="n">
-        <v>2604.874578707245</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R2" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S2" t="n">
-        <v>2618.063619462288</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T2" t="n">
-        <v>2397.138048506922</v>
+        <v>3269.595002058795</v>
       </c>
       <c r="U2" t="n">
-        <v>2138.783139103334</v>
+        <v>3011.240092655207</v>
       </c>
       <c r="V2" t="n">
-        <v>1781.293724229584</v>
+        <v>2653.750677781457</v>
       </c>
       <c r="W2" t="n">
-        <v>1781.293724229584</v>
+        <v>2257.359328081804</v>
       </c>
       <c r="X2" t="n">
-        <v>1781.293724229584</v>
+        <v>1845.639329249551</v>
       </c>
       <c r="Y2" t="n">
-        <v>1781.293724229584</v>
+        <v>1440.302059204442</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C3" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D3" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E3" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F3" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G3" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H3" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I3" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J3" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K3" t="n">
-        <v>644.9335448401225</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L3" t="n">
-        <v>644.9335448401225</v>
+        <v>526.9586330490793</v>
       </c>
       <c r="M3" t="n">
-        <v>725.1891208761992</v>
+        <v>526.9586330490793</v>
       </c>
       <c r="N3" t="n">
-        <v>725.1891208761992</v>
+        <v>526.9586330490793</v>
       </c>
       <c r="O3" t="n">
-        <v>725.1891208761992</v>
+        <v>1416.439911060551</v>
       </c>
       <c r="P3" t="n">
-        <v>1398.990771989513</v>
+        <v>1416.439911060551</v>
       </c>
       <c r="Q3" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R3" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S3" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T3" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U3" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V3" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W3" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X3" t="n">
-        <v>890.1920073700086</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y3" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1625.199008700256</v>
+        <v>2497.65596225213</v>
       </c>
       <c r="C4" t="n">
-        <v>1453.226445579172</v>
+        <v>2325.683399131046</v>
       </c>
       <c r="D4" t="n">
-        <v>1289.909672705943</v>
+        <v>2162.366626257817</v>
       </c>
       <c r="E4" t="n">
-        <v>1123.701466858797</v>
+        <v>1996.158420410671</v>
       </c>
       <c r="F4" t="n">
-        <v>951.8396926333571</v>
+        <v>1824.296646185231</v>
       </c>
       <c r="G4" t="n">
-        <v>785.5827229275893</v>
+        <v>1658.039676479463</v>
       </c>
       <c r="H4" t="n">
-        <v>641.7864544357437</v>
+        <v>1514.243407987618</v>
       </c>
       <c r="I4" t="n">
-        <v>542.0178861760197</v>
+        <v>1414.474839727893</v>
       </c>
       <c r="J4" t="n">
-        <v>599.5092144001777</v>
+        <v>1471.966167952051</v>
       </c>
       <c r="K4" t="n">
-        <v>826.0368156060149</v>
+        <v>1698.493769157889</v>
       </c>
       <c r="L4" t="n">
-        <v>1180.726136900436</v>
+        <v>2053.183090452309</v>
       </c>
       <c r="M4" t="n">
-        <v>1571.911931870686</v>
+        <v>2444.36888542256</v>
       </c>
       <c r="N4" t="n">
-        <v>1949.403442746722</v>
+        <v>2821.860396298596</v>
       </c>
       <c r="O4" t="n">
-        <v>2304.831571426485</v>
+        <v>3177.288524978359</v>
       </c>
       <c r="P4" t="n">
-        <v>2595.430783348386</v>
+        <v>3467.88773690026</v>
       </c>
       <c r="Q4" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R4" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S4" t="n">
-        <v>2552.295866108283</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T4" t="n">
-        <v>2308.956518334183</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U4" t="n">
-        <v>2308.956518334183</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="V4" t="n">
-        <v>2027.245050942212</v>
+        <v>3431.580999656136</v>
       </c>
       <c r="W4" t="n">
-        <v>1815.364977412322</v>
+        <v>3156.728595828649</v>
       </c>
       <c r="X4" t="n">
-        <v>1815.364977412322</v>
+        <v>2914.164699274454</v>
       </c>
       <c r="Y4" t="n">
-        <v>1815.364977412322</v>
+        <v>2687.821930964196</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1769.854842592705</v>
+        <v>1645.083668481085</v>
       </c>
       <c r="C5" t="n">
-        <v>1342.954112606005</v>
+        <v>1218.182938494385</v>
       </c>
       <c r="D5" t="n">
-        <v>919.6614917910056</v>
+        <v>794.8903176793854</v>
       </c>
       <c r="E5" t="n">
-        <v>493.6845519388631</v>
+        <v>794.8903176793854</v>
       </c>
       <c r="F5" t="n">
-        <v>493.6845519388631</v>
+        <v>369.7661358687856</v>
       </c>
       <c r="G5" t="n">
-        <v>89.34548952831176</v>
+        <v>369.7661358687856</v>
       </c>
       <c r="H5" t="n">
-        <v>89.34548952831176</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I5" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J5" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K5" t="n">
-        <v>728.2502693850971</v>
+        <v>80.53897563800069</v>
       </c>
       <c r="L5" t="n">
-        <v>1402.051920498411</v>
+        <v>970.2737227554036</v>
       </c>
       <c r="M5" t="n">
-        <v>1402.051920498411</v>
+        <v>1860.008469872806</v>
       </c>
       <c r="N5" t="n">
-        <v>2075.853571611725</v>
+        <v>2749.743216990209</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.853571611725</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="P5" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="Q5" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R5" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S5" t="n">
-        <v>2618.063619462288</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T5" t="n">
-        <v>2595.040476929345</v>
+        <v>3373.962296185655</v>
       </c>
       <c r="U5" t="n">
-        <v>2595.040476929345</v>
+        <v>3115.607386782067</v>
       </c>
       <c r="V5" t="n">
-        <v>2595.040476929345</v>
+        <v>2758.117971908317</v>
       </c>
       <c r="W5" t="n">
-        <v>2595.040476929345</v>
+        <v>2361.726622208664</v>
       </c>
       <c r="X5" t="n">
-        <v>2595.040476929345</v>
+        <v>2064.932032772615</v>
       </c>
       <c r="Y5" t="n">
-        <v>2189.703206884235</v>
+        <v>2064.932032772615</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1480.866774040094</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C6" t="n">
-        <v>1363.360870557599</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D6" t="n">
-        <v>1259.520912072884</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E6" t="n">
-        <v>1154.818978345821</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F6" t="n">
-        <v>1061.173148028725</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G6" t="n">
-        <v>967.1193762463289</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H6" t="n">
-        <v>913.7432830086385</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I6" t="n">
-        <v>913.7432830086385</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J6" t="n">
-        <v>913.7432830086385</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K6" t="n">
-        <v>913.7432830086385</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L6" t="n">
-        <v>913.7432830086385</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="M6" t="n">
-        <v>1584.483785613055</v>
+        <v>961.6325044602233</v>
       </c>
       <c r="N6" t="n">
-        <v>1584.483785613055</v>
+        <v>991.1041099118586</v>
       </c>
       <c r="O6" t="n">
-        <v>2258.285436726369</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="P6" t="n">
-        <v>2258.285436726369</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q6" t="n">
-        <v>2722.430913589148</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R6" t="n">
-        <v>2722.430913589148</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S6" t="n">
-        <v>2641.106666150403</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T6" t="n">
-        <v>2499.226730448081</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U6" t="n">
-        <v>2314.458534367718</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V6" t="n">
-        <v>2109.485395506984</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W6" t="n">
-        <v>1912.964018340201</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X6" t="n">
-        <v>1749.486672106864</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y6" t="n">
-        <v>1609.793783460156</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>555.9461601132427</v>
+        <v>573.3952991842801</v>
       </c>
       <c r="C7" t="n">
-        <v>383.9735969921587</v>
+        <v>401.4227360631962</v>
       </c>
       <c r="D7" t="n">
-        <v>220.6568241189294</v>
+        <v>238.1059631899669</v>
       </c>
       <c r="E7" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="F7" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G7" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H7" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I7" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J7" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K7" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L7" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M7" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N7" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O7" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P7" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q7" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R7" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S7" t="n">
-        <v>2064.726598204046</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="T7" t="n">
-        <v>1821.387250429946</v>
+        <v>2069.216252479952</v>
       </c>
       <c r="U7" t="n">
-        <v>1541.20280193025</v>
+        <v>1789.031803980257</v>
       </c>
       <c r="V7" t="n">
-        <v>1259.491334538279</v>
+        <v>1507.320336588285</v>
       </c>
       <c r="W7" t="n">
-        <v>984.6389307107922</v>
+        <v>1232.467932760798</v>
       </c>
       <c r="X7" t="n">
-        <v>742.0750341565973</v>
+        <v>989.9040362066037</v>
       </c>
       <c r="Y7" t="n">
-        <v>742.0750341565973</v>
+        <v>763.5612678963457</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1755.743090736225</v>
+        <v>1773.192229807262</v>
       </c>
       <c r="C8" t="n">
-        <v>1328.842360749525</v>
+        <v>1346.291499820562</v>
       </c>
       <c r="D8" t="n">
-        <v>905.5497399345252</v>
+        <v>922.9988790055627</v>
       </c>
       <c r="E8" t="n">
-        <v>479.5728000823827</v>
+        <v>497.0219391534202</v>
       </c>
       <c r="F8" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G8" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H8" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I8" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J8" t="n">
-        <v>417.0520770886785</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K8" t="n">
-        <v>1090.853728201993</v>
+        <v>787.4060653183195</v>
       </c>
       <c r="L8" t="n">
-        <v>1764.655379315307</v>
+        <v>787.4060653183195</v>
       </c>
       <c r="M8" t="n">
-        <v>1764.655379315307</v>
+        <v>787.4060653183195</v>
       </c>
       <c r="N8" t="n">
-        <v>2148.789099203062</v>
+        <v>1585.378458328099</v>
       </c>
       <c r="O8" t="n">
-        <v>2148.789099203062</v>
+        <v>2430.523108478911</v>
       </c>
       <c r="P8" t="n">
-        <v>2148.789099203062</v>
+        <v>3138.802387636838</v>
       </c>
       <c r="Q8" t="n">
-        <v>2604.874578707245</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R8" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S8" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T8" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U8" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="V8" t="n">
-        <v>2587.311453860008</v>
+        <v>3406.489212675808</v>
       </c>
       <c r="W8" t="n">
-        <v>2587.311453860008</v>
+        <v>3010.097862976154</v>
       </c>
       <c r="X8" t="n">
-        <v>2175.591455027755</v>
+        <v>2598.377864143902</v>
       </c>
       <c r="Y8" t="n">
-        <v>2175.591455027755</v>
+        <v>2193.040594098792</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C9" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D9" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E9" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F9" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G9" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H9" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I9" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J9" t="n">
-        <v>326.146107551374</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K9" t="n">
-        <v>326.146107551374</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L9" t="n">
-        <v>326.146107551374</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="M9" t="n">
-        <v>999.9477586646882</v>
+        <v>961.6325044602233</v>
       </c>
       <c r="N9" t="n">
-        <v>1673.749409778002</v>
+        <v>1851.367251577626</v>
       </c>
       <c r="O9" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="P9" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q9" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R9" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S9" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T9" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U9" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V9" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W9" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X9" t="n">
-        <v>890.1920073700086</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y9" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1137.62974079602</v>
+        <v>343.6388887236285</v>
       </c>
       <c r="C10" t="n">
-        <v>965.6571776749358</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="D10" t="n">
-        <v>802.3404048017065</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="E10" t="n">
-        <v>636.1321989545601</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="F10" t="n">
-        <v>464.2704247291205</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="G10" t="n">
-        <v>298.0134550233526</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="H10" t="n">
-        <v>154.217186531507</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="I10" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J10" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K10" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L10" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M10" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N10" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O10" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P10" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q10" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R10" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S10" t="n">
-        <v>2234.861645684911</v>
+        <v>2082.799189793401</v>
       </c>
       <c r="T10" t="n">
-        <v>2234.861645684911</v>
+        <v>1839.459842019301</v>
       </c>
       <c r="U10" t="n">
-        <v>2234.861645684911</v>
+        <v>1559.275393519605</v>
       </c>
       <c r="V10" t="n">
-        <v>1953.15017829294</v>
+        <v>1277.563926127634</v>
       </c>
       <c r="W10" t="n">
-        <v>1796.702374372538</v>
+        <v>1002.711522300147</v>
       </c>
       <c r="X10" t="n">
-        <v>1554.138477818344</v>
+        <v>760.1476257459522</v>
       </c>
       <c r="Y10" t="n">
-        <v>1327.795709508086</v>
+        <v>533.8048574356942</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1485.525280420256</v>
+        <v>2177.531292217814</v>
       </c>
       <c r="C11" t="n">
-        <v>1058.624550433556</v>
+        <v>1750.630562231114</v>
       </c>
       <c r="D11" t="n">
-        <v>1058.624550433556</v>
+        <v>1327.337941416114</v>
       </c>
       <c r="E11" t="n">
-        <v>632.6476105814135</v>
+        <v>901.3610015639716</v>
       </c>
       <c r="F11" t="n">
-        <v>632.6476105814135</v>
+        <v>476.2368197533718</v>
       </c>
       <c r="G11" t="n">
-        <v>387.2138680542769</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H11" t="n">
-        <v>89.34548952831176</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I11" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J11" t="n">
-        <v>417.0520770886785</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K11" t="n">
-        <v>1090.853728201993</v>
+        <v>787.4060653183195</v>
       </c>
       <c r="L11" t="n">
-        <v>1764.655379315307</v>
+        <v>787.4060653183195</v>
       </c>
       <c r="M11" t="n">
-        <v>1764.655379315307</v>
+        <v>1677.140812435722</v>
       </c>
       <c r="N11" t="n">
-        <v>2438.457030428621</v>
+        <v>2430.523108478911</v>
       </c>
       <c r="O11" t="n">
-        <v>2604.874578707245</v>
+        <v>2430.523108478911</v>
       </c>
       <c r="P11" t="n">
-        <v>2604.874578707245</v>
+        <v>3138.802387636838</v>
       </c>
       <c r="Q11" t="n">
-        <v>2604.874578707245</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R11" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S11" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T11" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U11" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="V11" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="W11" t="n">
-        <v>2722.430913589148</v>
+        <v>3414.436925386706</v>
       </c>
       <c r="X11" t="n">
-        <v>2310.710914756895</v>
+        <v>3002.716926554453</v>
       </c>
       <c r="Y11" t="n">
-        <v>1905.373644711786</v>
+        <v>2597.379656509343</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C12" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D12" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E12" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F12" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G12" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H12" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I12" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J12" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K12" t="n">
-        <v>54.44861827178296</v>
+        <v>662.38268391116</v>
       </c>
       <c r="L12" t="n">
-        <v>515.5329466256644</v>
+        <v>662.38268391116</v>
       </c>
       <c r="M12" t="n">
-        <v>1189.334597738979</v>
+        <v>662.38268391116</v>
       </c>
       <c r="N12" t="n">
-        <v>1863.136248852293</v>
+        <v>1552.117431028563</v>
       </c>
       <c r="O12" t="n">
-        <v>1863.136248852293</v>
+        <v>1552.117431028563</v>
       </c>
       <c r="P12" t="n">
-        <v>1863.136248852293</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="Q12" t="n">
-        <v>1863.136248852293</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="R12" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S12" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T12" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U12" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V12" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W12" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X12" t="n">
-        <v>890.1920073700086</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y12" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>468.6936525335126</v>
+        <v>1155.078879867057</v>
       </c>
       <c r="C13" t="n">
-        <v>468.6936525335126</v>
+        <v>983.1063167459732</v>
       </c>
       <c r="D13" t="n">
-        <v>468.6936525335126</v>
+        <v>819.7895438727439</v>
       </c>
       <c r="E13" t="n">
-        <v>468.6936525335126</v>
+        <v>653.5813380255975</v>
       </c>
       <c r="F13" t="n">
-        <v>464.2704247291205</v>
+        <v>481.7195638001579</v>
       </c>
       <c r="G13" t="n">
-        <v>298.0134550233526</v>
+        <v>315.4625940943901</v>
       </c>
       <c r="H13" t="n">
-        <v>154.217186531507</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="I13" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J13" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K13" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L13" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M13" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N13" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O13" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P13" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q13" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R13" t="n">
-        <v>2187.823032372085</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S13" t="n">
-        <v>2017.687984891219</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="T13" t="n">
-        <v>1774.348637117119</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="U13" t="n">
-        <v>1494.164188617424</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="V13" t="n">
-        <v>1212.452721225452</v>
+        <v>2089.003917271063</v>
       </c>
       <c r="W13" t="n">
-        <v>937.6003173979655</v>
+        <v>1814.151513443576</v>
       </c>
       <c r="X13" t="n">
-        <v>695.0364208437705</v>
+        <v>1571.587616889381</v>
       </c>
       <c r="Y13" t="n">
-        <v>468.6936525335126</v>
+        <v>1345.244848579123</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1790.639961992754</v>
+        <v>2177.531292217814</v>
       </c>
       <c r="C14" t="n">
-        <v>1363.739232006054</v>
+        <v>1750.630562231114</v>
       </c>
       <c r="D14" t="n">
-        <v>940.446611191054</v>
+        <v>1327.337941416114</v>
       </c>
       <c r="E14" t="n">
-        <v>514.4696713389116</v>
+        <v>901.3610015639716</v>
       </c>
       <c r="F14" t="n">
-        <v>89.34548952831176</v>
+        <v>476.2368197533718</v>
       </c>
       <c r="G14" t="n">
-        <v>89.34548952831176</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H14" t="n">
-        <v>89.34548952831176</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I14" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J14" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K14" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L14" t="n">
-        <v>728.2502693850971</v>
+        <v>961.6325044602233</v>
       </c>
       <c r="M14" t="n">
-        <v>1374.82761136252</v>
+        <v>1851.367251577626</v>
       </c>
       <c r="N14" t="n">
-        <v>2048.629262475834</v>
+        <v>2741.101998695029</v>
       </c>
       <c r="O14" t="n">
-        <v>2722.430913589148</v>
+        <v>3586.246648845841</v>
       </c>
       <c r="P14" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="Q14" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R14" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S14" t="n">
-        <v>2618.063619462288</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T14" t="n">
-        <v>2397.138048506922</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U14" t="n">
-        <v>2210.488326284284</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="V14" t="n">
-        <v>2210.488326284284</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="W14" t="n">
-        <v>2210.488326284284</v>
+        <v>3414.436925386706</v>
       </c>
       <c r="X14" t="n">
-        <v>2210.488326284284</v>
+        <v>3002.716926554453</v>
       </c>
       <c r="Y14" t="n">
-        <v>2210.488326284284</v>
+        <v>2597.379656509343</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C15" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D15" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E15" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F15" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G15" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H15" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I15" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J15" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K15" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L15" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="M15" t="n">
-        <v>728.2502693850971</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="N15" t="n">
-        <v>728.2502693850971</v>
+        <v>961.6325044602233</v>
       </c>
       <c r="O15" t="n">
-        <v>1402.051920498411</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="P15" t="n">
-        <v>1863.136248852293</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="Q15" t="n">
-        <v>1863.136248852293</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="R15" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S15" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T15" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U15" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V15" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W15" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X15" t="n">
-        <v>890.1920073700086</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y15" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1137.62974079602</v>
+        <v>1155.078879867057</v>
       </c>
       <c r="C16" t="n">
-        <v>965.6571776749358</v>
+        <v>983.1063167459732</v>
       </c>
       <c r="D16" t="n">
-        <v>802.3404048017065</v>
+        <v>819.7895438727439</v>
       </c>
       <c r="E16" t="n">
-        <v>636.1321989545601</v>
+        <v>653.5813380255975</v>
       </c>
       <c r="F16" t="n">
-        <v>464.2704247291205</v>
+        <v>481.7195638001579</v>
       </c>
       <c r="G16" t="n">
-        <v>298.0134550233526</v>
+        <v>315.4625940943901</v>
       </c>
       <c r="H16" t="n">
-        <v>154.217186531507</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="I16" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J16" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K16" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L16" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M16" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N16" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O16" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P16" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q16" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R16" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S16" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="T16" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="U16" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="V16" t="n">
-        <v>2071.554778200025</v>
+        <v>2089.003917271063</v>
       </c>
       <c r="W16" t="n">
-        <v>1796.702374372538</v>
+        <v>1814.151513443576</v>
       </c>
       <c r="X16" t="n">
-        <v>1554.138477818344</v>
+        <v>1571.587616889381</v>
       </c>
       <c r="Y16" t="n">
-        <v>1327.795709508086</v>
+        <v>1345.244848579123</v>
       </c>
     </row>
     <row r="17">
@@ -5531,10 +5533,10 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P17" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5598,22 +5600,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>939.1015214887346</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N18" t="n">
-        <v>939.1015214887346</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
-        <v>1112.773316863137</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q18" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5647,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1038.627791594045</v>
+        <v>796.7321961672538</v>
       </c>
       <c r="C19" t="n">
-        <v>1013.511272808982</v>
+        <v>796.7321961672538</v>
       </c>
       <c r="D19" t="n">
-        <v>850.1944999357522</v>
+        <v>796.7321961672538</v>
       </c>
       <c r="E19" t="n">
         <v>683.9862940886057</v>
@@ -5701,22 +5703,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>2065.542080025265</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U19" t="n">
-        <v>1785.357631525569</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="V19" t="n">
-        <v>1503.646164133598</v>
+        <v>1540.491264859194</v>
       </c>
       <c r="W19" t="n">
-        <v>1228.793760306111</v>
+        <v>1265.638861031707</v>
       </c>
       <c r="X19" t="n">
-        <v>1228.793760306111</v>
+        <v>1023.074964477512</v>
       </c>
       <c r="Y19" t="n">
-        <v>1228.793760306111</v>
+        <v>796.7321961672538</v>
       </c>
     </row>
     <row r="20">
@@ -5726,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>325.1003961287815</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K20" t="n">
-        <v>1040.608704104281</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L20" t="n">
-        <v>1970.233751723557</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M20" t="n">
-        <v>2974.519853142615</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N20" t="n">
-        <v>3950.770911629316</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5786,16 +5788,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C21" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D21" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E21" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F21" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G21" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H21" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.289251381874</v>
+        <v>4025.820723818557</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R21" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S21" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T21" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U21" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V21" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W21" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X21" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y21" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1185.483835930065</v>
+        <v>3158.801708427964</v>
       </c>
       <c r="C22" t="n">
-        <v>1013.511272808982</v>
+        <v>2986.82914530688</v>
       </c>
       <c r="D22" t="n">
-        <v>850.1944999357522</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="E22" t="n">
-        <v>683.9862940886057</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="F22" t="n">
-        <v>512.1245198631661</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I22" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L22" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M22" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N22" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O22" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P22" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q22" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S22" t="n">
-        <v>2282.715740818957</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T22" t="n">
-        <v>2282.715740818957</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="U22" t="n">
-        <v>2282.715740818957</v>
+        <v>4374.43821322394</v>
       </c>
       <c r="V22" t="n">
-        <v>2119.408873334071</v>
+        <v>4092.726745831969</v>
       </c>
       <c r="W22" t="n">
-        <v>1844.556469506584</v>
+        <v>3817.874342004482</v>
       </c>
       <c r="X22" t="n">
-        <v>1601.992572952389</v>
+        <v>3575.310445450287</v>
       </c>
       <c r="Y22" t="n">
-        <v>1375.649804642131</v>
+        <v>3348.967677140029</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5989,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K23" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L23" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M23" t="n">
-        <v>2110.0395278175</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N23" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O23" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P23" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C24" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D24" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E24" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F24" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G24" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H24" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>4362.434577686964</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R24" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S24" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T24" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U24" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V24" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W24" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X24" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y24" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="25">
@@ -6121,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>512.1245198631661</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C25" t="n">
-        <v>512.1245198631661</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D25" t="n">
-        <v>512.1245198631661</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E25" t="n">
-        <v>512.1245198631661</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F25" t="n">
         <v>512.1245198631661</v>
@@ -6169,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T25" t="n">
-        <v>1992.33777973203</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U25" t="n">
-        <v>1712.153331232334</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V25" t="n">
-        <v>1430.441863840363</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W25" t="n">
-        <v>1155.589460012876</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X25" t="n">
-        <v>913.0255634586812</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y25" t="n">
-        <v>702.2904885752318</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="26">
@@ -6224,16 +6226,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L26" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M26" t="n">
-        <v>2110.0395278175</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N26" t="n">
         <v>2988.069926596602</v>
@@ -6303,25 +6305,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K27" t="n">
-        <v>692.7876399741681</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L27" t="n">
-        <v>821.6753975134684</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3158.801708427964</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C28" t="n">
-        <v>2986.82914530688</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D28" t="n">
-        <v>2934.722642878299</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E28" t="n">
-        <v>2934.722642878299</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F28" t="n">
-        <v>2934.722642878299</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G28" t="n">
-        <v>2934.722642878299</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H28" t="n">
-        <v>2934.722642878299</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M28" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N28" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q28" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>4897.962009497735</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T28" t="n">
-        <v>4654.622661723635</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U28" t="n">
-        <v>4374.43821322394</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V28" t="n">
-        <v>4092.726745831969</v>
+        <v>2001.004273426986</v>
       </c>
       <c r="W28" t="n">
-        <v>3817.874342004482</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X28" t="n">
-        <v>3575.310445450287</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y28" t="n">
-        <v>3348.967677140029</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="29">
@@ -6461,16 +6463,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>464.9061722227241</v>
+        <v>292.0244587153436</v>
       </c>
       <c r="K29" t="n">
-        <v>1180.414480198223</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="L29" t="n">
-        <v>1983.783825177544</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M29" t="n">
-        <v>2988.069926596602</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N29" t="n">
         <v>2988.069926596602</v>
@@ -6537,28 +6539,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>939.1015214887346</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M30" t="n">
-        <v>939.1015214887346</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q30" t="n">
         <v>1910.990343986338</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3619.314716995755</v>
+        <v>1085.715267670341</v>
       </c>
       <c r="C31" t="n">
-        <v>3447.342153874671</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D31" t="n">
-        <v>3284.025381001441</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E31" t="n">
-        <v>3117.817175154295</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F31" t="n">
-        <v>2945.955400928855</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G31" t="n">
-        <v>2934.722642878299</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M31" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N31" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O31" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P31" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q31" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T31" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U31" t="n">
-        <v>4834.951221791732</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V31" t="n">
-        <v>4553.23975439976</v>
+        <v>2019.640305074347</v>
       </c>
       <c r="W31" t="n">
-        <v>4278.387350572273</v>
+        <v>1744.78790124686</v>
       </c>
       <c r="X31" t="n">
-        <v>4035.823454018078</v>
+        <v>1502.224004692665</v>
       </c>
       <c r="Y31" t="n">
-        <v>3809.48068570782</v>
+        <v>1275.881236382407</v>
       </c>
     </row>
     <row r="32">
@@ -6701,22 +6703,22 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1394.531219842001</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M32" t="n">
-        <v>2398.817321261059</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N32" t="n">
-        <v>3375.06837974776</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O32" t="n">
-        <v>4220.213029898572</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P32" t="n">
-        <v>4928.4923090565</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q32" t="n">
         <v>5115.135670291427</v>
@@ -6774,25 +6776,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P33" t="n">
         <v>1910.990343986338</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1185.483835930065</v>
+        <v>3270.011978872612</v>
       </c>
       <c r="C34" t="n">
-        <v>1013.511272808982</v>
+        <v>3098.039415751528</v>
       </c>
       <c r="D34" t="n">
-        <v>850.1944999357522</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="E34" t="n">
-        <v>683.9862940886057</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="F34" t="n">
-        <v>512.1245198631661</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I34" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L34" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M34" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N34" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O34" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P34" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q34" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R34" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S34" t="n">
-        <v>2112.580693338092</v>
+        <v>5009.172279942384</v>
       </c>
       <c r="T34" t="n">
-        <v>2112.580693338092</v>
+        <v>4765.832932168284</v>
       </c>
       <c r="U34" t="n">
-        <v>1832.396244838396</v>
+        <v>4485.648483668589</v>
       </c>
       <c r="V34" t="n">
-        <v>1832.396244838396</v>
+        <v>4203.937016276617</v>
       </c>
       <c r="W34" t="n">
-        <v>1557.543841010909</v>
+        <v>3929.08461244913</v>
       </c>
       <c r="X34" t="n">
-        <v>1314.979944456714</v>
+        <v>3686.520715894936</v>
       </c>
       <c r="Y34" t="n">
-        <v>1314.979944456714</v>
+        <v>3460.177947584677</v>
       </c>
     </row>
     <row r="35">
@@ -6935,25 +6937,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>195.4640539534684</v>
       </c>
       <c r="K35" t="n">
-        <v>651.5495334576516</v>
+        <v>195.4640539534684</v>
       </c>
       <c r="L35" t="n">
-        <v>1581.174581076928</v>
+        <v>1125.089101572745</v>
       </c>
       <c r="M35" t="n">
-        <v>2585.460682495986</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N35" t="n">
-        <v>3561.711740982687</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O35" t="n">
-        <v>4406.8563911335</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q35" t="n">
         <v>5115.135670291427</v>
@@ -7011,22 +7013,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>855.0038060102931</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>855.0038060102931</v>
       </c>
       <c r="M36" t="n">
-        <v>102.3027134058285</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N36" t="n">
-        <v>1191.617659878699</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O36" t="n">
         <v>1910.990343986338</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3854.586992529306</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C37" t="n">
-        <v>3682.614429408222</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D37" t="n">
-        <v>3682.614429408222</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E37" t="n">
-        <v>3516.406223561076</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
-        <v>3344.544449335636</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M37" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N37" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O37" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P37" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q37" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>4897.962009497735</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T37" t="n">
-        <v>4897.962009497735</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U37" t="n">
-        <v>4617.77756099804</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V37" t="n">
-        <v>4617.77756099804</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W37" t="n">
-        <v>4513.659626105825</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X37" t="n">
-        <v>4271.09572955163</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y37" t="n">
-        <v>4044.752961241372</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="38">
@@ -7148,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>2974.519853142615</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="O38" t="n">
-        <v>4541.493855905342</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291427</v>
@@ -7208,16 +7210,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C39" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D39" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E39" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F39" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>3306.448039710919</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N39" t="n">
-        <v>4395.762986183789</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O39" t="n">
-        <v>4398.937953252929</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P39" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S39" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T39" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U39" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V39" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W39" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X39" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y39" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>775.6620294727279</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C40" t="n">
-        <v>603.6894663516439</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D40" t="n">
-        <v>440.3726934784146</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E40" t="n">
-        <v>274.1644876312681</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F40" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G40" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H40" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7354,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S40" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T40" t="n">
-        <v>2271.4829827684</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U40" t="n">
-        <v>1991.298534268705</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="V40" t="n">
-        <v>1709.587066876733</v>
+        <v>1783.830612633294</v>
       </c>
       <c r="W40" t="n">
-        <v>1434.734663049246</v>
+        <v>1783.830612633294</v>
       </c>
       <c r="X40" t="n">
-        <v>1192.170766495052</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y40" t="n">
-        <v>965.8279981847936</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>979.5651044848208</v>
+        <v>1440.302059204442</v>
       </c>
       <c r="C41" t="n">
-        <v>979.5651044848208</v>
+        <v>1013.401329217742</v>
       </c>
       <c r="D41" t="n">
-        <v>791.5529304648283</v>
+        <v>590.1087084027422</v>
       </c>
       <c r="E41" t="n">
-        <v>791.5529304648283</v>
+        <v>164.1317685505998</v>
       </c>
       <c r="F41" t="n">
-        <v>791.5529304648283</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G41" t="n">
-        <v>387.2138680542769</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H41" t="n">
-        <v>89.34548952831176</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I41" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J41" t="n">
-        <v>417.0520770886785</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K41" t="n">
-        <v>417.0520770886785</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L41" t="n">
-        <v>417.0520770886785</v>
+        <v>1996.873840865691</v>
       </c>
       <c r="M41" t="n">
-        <v>417.0520770886785</v>
+        <v>1996.873840865691</v>
       </c>
       <c r="N41" t="n">
-        <v>801.1857969764337</v>
+        <v>2886.608587983094</v>
       </c>
       <c r="O41" t="n">
-        <v>1474.987448089748</v>
+        <v>2886.608587983094</v>
       </c>
       <c r="P41" t="n">
-        <v>2148.789099203062</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="Q41" t="n">
-        <v>2604.874578707245</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R41" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S41" t="n">
-        <v>2618.063619462288</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T41" t="n">
-        <v>2397.138048506922</v>
+        <v>3269.595002058795</v>
       </c>
       <c r="U41" t="n">
-        <v>2138.783139103334</v>
+        <v>3011.240092655207</v>
       </c>
       <c r="V41" t="n">
-        <v>1781.293724229584</v>
+        <v>2653.750677781457</v>
       </c>
       <c r="W41" t="n">
-        <v>1384.902374529931</v>
+        <v>2257.359328081804</v>
       </c>
       <c r="X41" t="n">
-        <v>1384.902374529931</v>
+        <v>1845.639329249551</v>
       </c>
       <c r="Y41" t="n">
-        <v>979.5651044848208</v>
+        <v>1440.302059204442</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C42" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D42" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E42" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F42" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G42" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H42" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I42" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J42" t="n">
-        <v>326.146107551374</v>
+        <v>343.5952466224115</v>
       </c>
       <c r="K42" t="n">
-        <v>326.146107551374</v>
+        <v>934.0801731907511</v>
       </c>
       <c r="L42" t="n">
-        <v>326.146107551374</v>
+        <v>934.0801731907511</v>
       </c>
       <c r="M42" t="n">
-        <v>999.9477586646882</v>
+        <v>934.0801731907511</v>
       </c>
       <c r="N42" t="n">
-        <v>1673.749409778002</v>
+        <v>934.0801731907511</v>
       </c>
       <c r="O42" t="n">
-        <v>1863.136248852293</v>
+        <v>934.0801731907511</v>
       </c>
       <c r="P42" t="n">
-        <v>1863.136248852293</v>
+        <v>1416.439911060551</v>
       </c>
       <c r="Q42" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R42" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S42" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T42" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U42" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V42" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W42" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X42" t="n">
-        <v>890.1920073700086</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y42" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>894.0649040444501</v>
+        <v>553.8127697658734</v>
       </c>
       <c r="C43" t="n">
-        <v>722.0923409233661</v>
+        <v>553.8127697658734</v>
       </c>
       <c r="D43" t="n">
-        <v>558.7755680501368</v>
+        <v>553.8127697658734</v>
       </c>
       <c r="E43" t="n">
-        <v>392.5673622029904</v>
+        <v>553.8127697658734</v>
       </c>
       <c r="F43" t="n">
-        <v>220.7055879775508</v>
+        <v>381.9509955404339</v>
       </c>
       <c r="G43" t="n">
-        <v>54.44861827178296</v>
+        <v>215.694025834666</v>
       </c>
       <c r="H43" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I43" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J43" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K43" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L43" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M43" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N43" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O43" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P43" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q43" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R43" t="n">
-        <v>2234.861645684911</v>
+        <v>2205.272171443122</v>
       </c>
       <c r="S43" t="n">
-        <v>2234.861645684911</v>
+        <v>2035.137123962257</v>
       </c>
       <c r="T43" t="n">
-        <v>2234.861645684911</v>
+        <v>1791.797776188157</v>
       </c>
       <c r="U43" t="n">
-        <v>1954.677197185216</v>
+        <v>1511.613327688461</v>
       </c>
       <c r="V43" t="n">
-        <v>1827.989941448456</v>
+        <v>1229.90186029649</v>
       </c>
       <c r="W43" t="n">
-        <v>1553.137537620968</v>
+        <v>955.0494564690027</v>
       </c>
       <c r="X43" t="n">
-        <v>1310.573641066774</v>
+        <v>712.4855599148078</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.230872756516</v>
+        <v>553.8127697658734</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1330.618908925625</v>
+        <v>2257.359328081804</v>
       </c>
       <c r="C44" t="n">
-        <v>903.7181789389251</v>
+        <v>1830.458598095104</v>
       </c>
       <c r="D44" t="n">
-        <v>480.4255581239254</v>
+        <v>1660.103191198608</v>
       </c>
       <c r="E44" t="n">
-        <v>54.44861827178296</v>
+        <v>1234.126251346466</v>
       </c>
       <c r="F44" t="n">
-        <v>54.44861827178296</v>
+        <v>809.0020695358658</v>
       </c>
       <c r="G44" t="n">
-        <v>54.44861827178296</v>
+        <v>404.6630071253144</v>
       </c>
       <c r="H44" t="n">
-        <v>54.44861827178296</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="I44" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J44" t="n">
-        <v>54.44861827178296</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K44" t="n">
-        <v>728.2502693850971</v>
+        <v>695.6437112106956</v>
       </c>
       <c r="L44" t="n">
-        <v>1402.051920498411</v>
+        <v>695.6437112106956</v>
       </c>
       <c r="M44" t="n">
-        <v>2075.853571611725</v>
+        <v>1585.378458328099</v>
       </c>
       <c r="N44" t="n">
-        <v>2604.874578707245</v>
+        <v>1585.378458328099</v>
       </c>
       <c r="O44" t="n">
-        <v>2604.874578707245</v>
+        <v>2430.523108478911</v>
       </c>
       <c r="P44" t="n">
-        <v>2604.874578707245</v>
+        <v>3138.802387636838</v>
       </c>
       <c r="Q44" t="n">
-        <v>2604.874578707245</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R44" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S44" t="n">
-        <v>2722.430913589148</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T44" t="n">
-        <v>2722.430913589148</v>
+        <v>3269.595002058795</v>
       </c>
       <c r="U44" t="n">
-        <v>2722.430913589148</v>
+        <v>3011.240092655207</v>
       </c>
       <c r="V44" t="n">
-        <v>2722.430913589148</v>
+        <v>2653.750677781457</v>
       </c>
       <c r="W44" t="n">
-        <v>2567.524542094518</v>
+        <v>2257.359328081804</v>
       </c>
       <c r="X44" t="n">
-        <v>2155.804543262265</v>
+        <v>2257.359328081804</v>
       </c>
       <c r="Y44" t="n">
-        <v>1750.467273217155</v>
+        <v>2257.359328081804</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1480.866774040094</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C45" t="n">
-        <v>1363.360870557599</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D45" t="n">
-        <v>1259.520912072884</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E45" t="n">
-        <v>1154.818978345821</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F45" t="n">
-        <v>1061.173148028725</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G45" t="n">
-        <v>967.1193762463289</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H45" t="n">
-        <v>913.7432830086385</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I45" t="n">
-        <v>913.7432830086385</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J45" t="n">
-        <v>913.7432830086385</v>
+        <v>343.5952466224115</v>
       </c>
       <c r="K45" t="n">
-        <v>913.7432830086385</v>
+        <v>934.0801731907511</v>
       </c>
       <c r="L45" t="n">
-        <v>913.7432830086385</v>
+        <v>934.0801731907511</v>
       </c>
       <c r="M45" t="n">
-        <v>913.7432830086385</v>
+        <v>934.0801731907511</v>
       </c>
       <c r="N45" t="n">
-        <v>1587.544934121953</v>
+        <v>934.0801731907511</v>
       </c>
       <c r="O45" t="n">
-        <v>2258.285436726369</v>
+        <v>934.0801731907511</v>
       </c>
       <c r="P45" t="n">
-        <v>2258.285436726369</v>
+        <v>1416.439911060551</v>
       </c>
       <c r="Q45" t="n">
-        <v>2722.430913589148</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R45" t="n">
-        <v>2722.430913589148</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S45" t="n">
-        <v>2641.106666150403</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T45" t="n">
-        <v>2499.226730448081</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U45" t="n">
-        <v>2314.458534367718</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V45" t="n">
-        <v>2109.485395506984</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W45" t="n">
-        <v>1912.964018340201</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X45" t="n">
-        <v>1749.486672106864</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y45" t="n">
-        <v>1609.793783460156</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1137.62974079602</v>
+        <v>513.1504836861761</v>
       </c>
       <c r="C46" t="n">
-        <v>965.6571776749358</v>
+        <v>341.1779205650921</v>
       </c>
       <c r="D46" t="n">
-        <v>802.3404048017065</v>
+        <v>341.1779205650921</v>
       </c>
       <c r="E46" t="n">
-        <v>636.1321989545601</v>
+        <v>341.1779205650921</v>
       </c>
       <c r="F46" t="n">
-        <v>464.2704247291205</v>
+        <v>169.3161463396525</v>
       </c>
       <c r="G46" t="n">
-        <v>298.0134550233526</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H46" t="n">
-        <v>154.217186531507</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I46" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J46" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K46" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L46" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M46" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N46" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O46" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P46" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q46" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R46" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S46" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="T46" t="n">
-        <v>2234.861645684911</v>
+        <v>2008.971436981848</v>
       </c>
       <c r="U46" t="n">
-        <v>2234.861645684911</v>
+        <v>1728.786988482153</v>
       </c>
       <c r="V46" t="n">
-        <v>2071.554778200025</v>
+        <v>1447.075521090182</v>
       </c>
       <c r="W46" t="n">
-        <v>1796.702374372538</v>
+        <v>1172.223117262695</v>
       </c>
       <c r="X46" t="n">
-        <v>1554.138477818344</v>
+        <v>929.6592207084997</v>
       </c>
       <c r="Y46" t="n">
-        <v>1327.795709508086</v>
+        <v>703.3164523982417</v>
       </c>
     </row>
   </sheetData>
@@ -7979,28 +7981,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>716.3723291920963</v>
+        <v>44.49310412327424</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>937.0340092178783</v>
       </c>
       <c r="M2" t="n">
-        <v>718.0389912967188</v>
+        <v>936.1532296846872</v>
       </c>
       <c r="N2" t="n">
-        <v>110.9518729267053</v>
+        <v>936.0015896197015</v>
       </c>
       <c r="O2" t="n">
-        <v>717.9986877533111</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P2" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,22 +8060,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>482.1725369225717</v>
       </c>
       <c r="M3" t="n">
-        <v>104.1630189326075</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P3" t="n">
-        <v>702.3785696021157</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
         <v>491.5808533018869</v>
@@ -8216,22 +8218,22 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>716.3723291920963</v>
+        <v>44.49310412327424</v>
       </c>
       <c r="L5" t="n">
-        <v>718.9197708299099</v>
+        <v>937.0340092178783</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>936.1532296846872</v>
       </c>
       <c r="N5" t="n">
-        <v>717.8873512317331</v>
+        <v>936.0015896197015</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P5" t="n">
-        <v>690.6837880500523</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
         <v>36.12467460459804</v>
@@ -8301,19 +8303,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>700.6124397087081</v>
+        <v>921.8187472975834</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>51.11232664953685</v>
       </c>
       <c r="O6" t="n">
-        <v>703.7796181195092</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P6" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8450,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>716.3723291920963</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L8" t="n">
-        <v>718.9197708299099</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>425.293481306926</v>
+        <v>843.312343046344</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,7 +8531,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
@@ -8538,13 +8540,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>703.704508909615</v>
+        <v>921.8187472975834</v>
       </c>
       <c r="N9" t="n">
-        <v>701.9507566108286</v>
+        <v>920.064994998797</v>
       </c>
       <c r="O9" t="n">
-        <v>214.4717271710005</v>
+        <v>52.685158758287</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>716.3723291920963</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>718.9197708299099</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>936.1532296846872</v>
       </c>
       <c r="N11" t="n">
-        <v>717.8873512317331</v>
+        <v>798.2718410598887</v>
       </c>
       <c r="O11" t="n">
-        <v>205.4894929707963</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,28 +8771,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>488.256832526231</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>703.704508909615</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>701.9507566108286</v>
+        <v>920.064994998797</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>270.7088682857017</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8930,19 +8932,19 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>718.9197708299099</v>
+        <v>937.0340092178783</v>
       </c>
       <c r="M14" t="n">
-        <v>690.5396891392526</v>
+        <v>936.1532296846872</v>
       </c>
       <c r="N14" t="n">
-        <v>717.8873512317331</v>
+        <v>936.0015896197015</v>
       </c>
       <c r="O14" t="n">
-        <v>717.9986877533111</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>46.3038651386963</v>
       </c>
       <c r="Q14" t="n">
         <v>36.12467460459804</v>
@@ -9012,22 +9014,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>703.704508909615</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>21.34302821354166</v>
+        <v>920.064994998797</v>
       </c>
       <c r="O15" t="n">
-        <v>703.7796181195092</v>
+        <v>868.5593375791957</v>
       </c>
       <c r="P15" t="n">
-        <v>487.5125870168303</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9179,13 +9181,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>466.324307620685</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q17" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9246,25 +9248,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O18" t="n">
-        <v>198.5979456559621</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>254.4681238522057</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L20" t="n">
-        <v>977.3272420480539</v>
+        <v>952.6858336296069</v>
       </c>
       <c r="M20" t="n">
         <v>1051.861668373228</v>
@@ -9413,7 +9415,7 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O20" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
         <v>753.0089771212694</v>
@@ -9422,7 +9424,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9486,10 +9488,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685286</v>
       </c>
       <c r="N21" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9644,22 +9646,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N23" t="n">
-        <v>924.1790155406098</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q23" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9723,10 +9725,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574439</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9881,10 +9883,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>37.43126289943181</v>
+        <v>304.4845953330648</v>
       </c>
       <c r="N26" t="n">
-        <v>924.1790155406098</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
@@ -9951,28 +9953,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>152.7047407943309</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>509.0028996591719</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10109,19 +10111,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>395.6860795026527</v>
+        <v>221.0580860608543</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>849.7962292804214</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M29" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
@@ -10185,31 +10187,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1003.048909524252</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10349,16 +10351,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M32" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>967.5075822902267</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
@@ -10367,7 +10369,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>224.6533223166459</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>35.03264989479647</v>
@@ -10422,28 +10424,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>522.0689695543915</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
@@ -10583,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>123.5223236751217</v>
       </c>
       <c r="K35" t="n">
-        <v>590.5593685239236</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
@@ -10604,7 +10606,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
         <v>35.03264989479647</v>
@@ -10659,25 +10661,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>500.7395978363249</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>749.810964578424</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10829,22 +10831,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>910.6437127227809</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
-        <v>859.128966425699</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P38" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10908,16 +10910,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N39" t="n">
         <v>1121.661155963915</v>
       </c>
       <c r="O39" t="n">
-        <v>26.37892716579861</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
         <v>22.7470382889785</v>
@@ -11060,28 +11062,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>893.7305441805782</v>
       </c>
       <c r="M41" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>425.2934813069261</v>
+        <v>936.0015896197015</v>
       </c>
       <c r="O41" t="n">
-        <v>717.9986877533111</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P41" t="n">
-        <v>718.1830902075183</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,25 +11141,25 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>703.704508909615</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>701.9507566108286</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>214.4717271710005</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>509.0028996591719</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>716.3723291920963</v>
+        <v>299.5448988261019</v>
       </c>
       <c r="L44" t="n">
-        <v>718.9197708299099</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M44" t="n">
-        <v>718.0389912967188</v>
+        <v>936.1532296846872</v>
       </c>
       <c r="N44" t="n">
-        <v>571.6442764662844</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,10 +11375,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
@@ -11385,13 +11387,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>701.9507566108286</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>700.6875489186021</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>509.0028996591719</v>
       </c>
       <c r="Q45" t="n">
         <v>491.5808533018869</v>
@@ -22547,7 +22549,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>213.2946135635574</v>
       </c>
       <c r="D2" t="n">
         <v>419.0596946068497</v>
@@ -22556,7 +22558,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>279.3111575008335</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22607,13 +22609,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22753,25 +22755,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W4" t="n">
-        <v>62.34260699462141</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22790,19 +22792,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22832,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>195.9234041381992</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>113.776155302242</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -22939,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.996723722023972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -22990,10 +22992,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>59.64236734312274</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -23008,7 +23010,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23078,16 +23080,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>220.1462555931639</v>
+        <v>167.3998528044513</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23182,19 +23184,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -23227,19 +23229,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0.6172179931341191</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -23261,22 +23263,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>157.3162666845807</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23318,7 +23320,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>213.7810038658839</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>165.764160956837</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23507,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>70.98813530914018</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>213.7810038658839</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23887,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>145.3874838926598</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>52.92768073081336</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23941,10 +23943,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>110.098167740202</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24364,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24409,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>15.45161649254055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>110.098167740202</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24850,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>153.4739695386591</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24892,10 +24894,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>18.44967133088738</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>60.06316158356262</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,16 +25125,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>63.52994056050389</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25318,19 +25320,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>169.0271242459192</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>229.7855238263079</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>60.1185983045572</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25628,25 +25630,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>232.927642327057</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>329.5612688967922</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25691,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25783,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>98.77088257712678</v>
@@ -25831,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>153.4739695386589</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>66.99327837971035</v>
       </c>
     </row>
     <row r="44">
@@ -25862,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>250.4078417793183</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>239.0701284229723</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>68.15019490184642</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,13 +26076,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>471901.6033531288</v>
+        <v>556192.5504710107</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>471901.6033531288</v>
+        <v>556192.5504710107</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>471901.6033531289</v>
+        <v>556192.5504710107</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>471901.6033531289</v>
+        <v>556192.5504710107</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>471901.6033531289</v>
+        <v>556192.5504710107</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>703068.7105609049</v>
+        <v>703068.710560905</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>703068.710560905</v>
+        <v>703068.7105609049</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>703068.710560905</v>
+        <v>703068.7105609049</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>703068.7105609049</v>
+        <v>703068.710560905</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>703068.710560905</v>
+        <v>703068.7105609049</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>471901.6033531289</v>
+        <v>556192.5504710106</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>471901.6033531289</v>
+        <v>556192.5504710107</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>207485.7353817734</v>
+        <v>244543.6550785647</v>
       </c>
       <c r="C2" t="n">
-        <v>207485.7353817734</v>
+        <v>244543.6550785646</v>
       </c>
       <c r="D2" t="n">
-        <v>207485.7353817734</v>
+        <v>244543.6550785647</v>
       </c>
       <c r="E2" t="n">
-        <v>207485.7353817735</v>
+        <v>244543.6550785647</v>
       </c>
       <c r="F2" t="n">
-        <v>207485.7353817734</v>
+        <v>244543.6550785646</v>
       </c>
       <c r="G2" t="n">
-        <v>309116.721725596</v>
+        <v>309116.7217255959</v>
       </c>
       <c r="H2" t="n">
-        <v>309116.721725596</v>
+        <v>309116.7217255961</v>
       </c>
       <c r="I2" t="n">
         <v>309116.721725596</v>
@@ -26338,22 +26340,22 @@
         <v>309116.721725596</v>
       </c>
       <c r="K2" t="n">
-        <v>309116.7217255961</v>
+        <v>309116.721725596</v>
       </c>
       <c r="L2" t="n">
-        <v>309116.721725596</v>
+        <v>309116.7217255959</v>
       </c>
       <c r="M2" t="n">
         <v>309116.7217255961</v>
       </c>
       <c r="N2" t="n">
-        <v>309116.7217255959</v>
+        <v>309116.721725596</v>
       </c>
       <c r="O2" t="n">
-        <v>207485.7353817734</v>
+        <v>244543.6550785646</v>
       </c>
       <c r="P2" t="n">
-        <v>207485.7353817733</v>
+        <v>244543.6550785647</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>228087.303763684</v>
+        <v>301182.4016749751</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>163951.1208101861</v>
+        <v>104169.2797816197</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>178076.9284887798</v>
+        <v>235145.2102775613</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19722.71048820159</v>
+        <v>23263.13375555789</v>
       </c>
       <c r="C4" t="n">
-        <v>19722.71048820159</v>
+        <v>23263.13375555789</v>
       </c>
       <c r="D4" t="n">
-        <v>19722.71048820158</v>
+        <v>23263.13375555789</v>
       </c>
       <c r="E4" t="n">
-        <v>19722.71048820159</v>
+        <v>23263.13375555789</v>
       </c>
       <c r="F4" t="n">
-        <v>19722.71048820159</v>
+        <v>23263.13375555789</v>
       </c>
       <c r="G4" t="n">
         <v>29432.2870559115</v>
@@ -26436,10 +26438,10 @@
         <v>29432.2870559115</v>
       </c>
       <c r="I4" t="n">
+        <v>29432.2870559115</v>
+      </c>
+      <c r="J4" t="n">
         <v>29432.28705591151</v>
-      </c>
-      <c r="J4" t="n">
-        <v>29432.2870559115</v>
       </c>
       <c r="K4" t="n">
         <v>29432.2870559115</v>
@@ -26448,16 +26450,16 @@
         <v>29432.2870559115</v>
       </c>
       <c r="M4" t="n">
-        <v>29432.2870559115</v>
+        <v>29432.28705591151</v>
       </c>
       <c r="N4" t="n">
         <v>29432.2870559115</v>
       </c>
       <c r="O4" t="n">
-        <v>19722.71048820159</v>
+        <v>23263.13375555789</v>
       </c>
       <c r="P4" t="n">
-        <v>19722.71048820158</v>
+        <v>23263.13375555789</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75008.54988655505</v>
+        <v>88269.89558054353</v>
       </c>
       <c r="C5" t="n">
-        <v>75008.54988655505</v>
+        <v>88269.89558054353</v>
       </c>
       <c r="D5" t="n">
-        <v>75008.54988655505</v>
+        <v>88269.89558054353</v>
       </c>
       <c r="E5" t="n">
-        <v>41380.94988655505</v>
+        <v>54642.29558054353</v>
       </c>
       <c r="F5" t="n">
-        <v>41380.94988655505</v>
+        <v>54642.29558054353</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26506,10 +26508,10 @@
         <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>41380.94988655505</v>
+        <v>54642.29558054353</v>
       </c>
       <c r="P5" t="n">
-        <v>41380.94988655505</v>
+        <v>54642.29558054353</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-115332.8287566672</v>
+        <v>-168171.7759325118</v>
       </c>
       <c r="C6" t="n">
-        <v>112754.4750070168</v>
+        <v>133010.6257424632</v>
       </c>
       <c r="D6" t="n">
-        <v>112754.4750070167</v>
+        <v>133010.6257424632</v>
       </c>
       <c r="E6" t="n">
-        <v>146382.0750070168</v>
+        <v>166638.2257424633</v>
       </c>
       <c r="F6" t="n">
-        <v>146382.0750070167</v>
+        <v>166638.2257424632</v>
       </c>
       <c r="G6" t="n">
-        <v>37983.25167106876</v>
+        <v>97765.09269963503</v>
       </c>
       <c r="H6" t="n">
-        <v>201934.3724812548</v>
+        <v>201934.3724812549</v>
       </c>
       <c r="I6" t="n">
         <v>201934.3724812548</v>
       </c>
       <c r="J6" t="n">
-        <v>23857.44399247503</v>
+        <v>-33210.83779630653</v>
       </c>
       <c r="K6" t="n">
-        <v>201934.3724812549</v>
+        <v>201934.3724812548</v>
       </c>
       <c r="L6" t="n">
-        <v>201934.3724812548</v>
+        <v>201934.3724812547</v>
       </c>
       <c r="M6" t="n">
         <v>201934.3724812549</v>
       </c>
       <c r="N6" t="n">
-        <v>201934.3724812547</v>
+        <v>201934.3724812548</v>
       </c>
       <c r="O6" t="n">
-        <v>146382.0750070167</v>
+        <v>166638.2257424632</v>
       </c>
       <c r="P6" t="n">
-        <v>146382.0750070167</v>
+        <v>166638.2257424633</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="C4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="D4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="E4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="F4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="P4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>598.1761891755698</v>
+        <v>380.0619507876014</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.6077283972871</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>598.1761891755698</v>
+        <v>380.0619507876014</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34699,28 +34701,28 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>680.607728397287</v>
+        <v>8.728503328464901</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="M2" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N2" t="n">
-        <v>73.67225009225932</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O2" t="n">
-        <v>680.607728397287</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>459.6574502083422</v>
       </c>
       <c r="M3" t="n">
-        <v>81.06623842027952</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P3" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>468.8338150129084</v>
@@ -34936,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>680.607728397287</v>
+        <v>8.728503328464901</v>
       </c>
       <c r="L5" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N5" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P5" t="n">
-        <v>653.1084262398209</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35021,19 +35023,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>677.5156591963801</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>29.76929843599519</v>
       </c>
       <c r="O6" t="n">
-        <v>680.607728397287</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>680.607728397287</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L8" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>388.01385847248</v>
+        <v>806.032720211898</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35258,13 +35260,13 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N9" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O9" t="n">
-        <v>191.2998374487783</v>
+        <v>29.51326903606477</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>680.607728397287</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N11" t="n">
-        <v>680.607728397287</v>
+        <v>760.9922182254427</v>
       </c>
       <c r="O11" t="n">
-        <v>168.0985336147722</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35491,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>465.7417458120015</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>248.938027080873</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35650,19 +35652,19 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="M14" t="n">
-        <v>653.1084262398208</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N14" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O14" t="n">
-        <v>680.607728397287</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>8.728503328465001</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35732,22 +35734,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O15" t="n">
-        <v>680.607728397287</v>
+        <v>845.3874478569735</v>
       </c>
       <c r="P15" t="n">
-        <v>465.7417458120016</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35899,13 +35901,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>428.7489458104537</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,25 +35968,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O18" t="n">
-        <v>175.4260559337399</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>225.0481643666192</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>939.015199615431</v>
+        <v>914.373791196984</v>
       </c>
       <c r="M20" t="n">
         <v>1014.430405473796</v>
@@ -36133,7 +36135,7 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
         <v>715.433615311038</v>
@@ -36142,7 +36144,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,10 +36208,10 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562006</v>
       </c>
       <c r="N21" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36364,22 +36366,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N23" t="n">
-        <v>886.8993927061638</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q23" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,10 +36445,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439022</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36601,10 +36603,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>267.053332433633</v>
       </c>
       <c r="N26" t="n">
-        <v>886.8993927061638</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>130.1896540801013</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>487.2320584543432</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>366.2661200170662</v>
+        <v>191.6381265752677</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>811.4841868477985</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
@@ -36905,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>981.7058813107108</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,16 +37071,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>930.2279594557806</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
@@ -37087,7 +37089,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>188.5286477120479</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37142,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>499.553882840162</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37303,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>94.10236418953517</v>
       </c>
       <c r="K35" t="n">
-        <v>554.7947677291143</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
@@ -37324,7 +37326,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37379,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>478.3403640029916</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>726.6390748562018</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37549,22 +37551,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>873.2124498233492</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
-        <v>821.7380070696748</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,16 +37630,16 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N39" t="n">
         <v>1100.318127750374</v>
       </c>
       <c r="O39" t="n">
-        <v>3.207037443576385</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37780,28 +37782,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>855.4185017479554</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>388.0138584724801</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O41" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>680.607728397287</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,25 +37861,25 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>191.2998374487783</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>487.2320584543432</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>680.607728397287</v>
+        <v>263.7802980312926</v>
       </c>
       <c r="L44" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N44" t="n">
-        <v>534.3646536318383</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38105,13 +38107,13 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>677.5156591963799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>487.2320584543432</v>
       </c>
       <c r="Q45" t="n">
         <v>468.8338150129084</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_22.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>961630.0199893854</v>
+        <v>959712.3023308233</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2820057.507897159</v>
+        <v>2820057.50789716</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7276621.357578244</v>
+        <v>7276621.357578245</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>209.3371091232755</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,10 +715,10 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>265.7586288338165</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
@@ -727,7 +727,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -822,22 +822,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,16 +867,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
@@ -904,19 +904,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>147.1691112111712</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>293.8266435416882</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T7" t="n">
-        <v>181.2635869532363</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
@@ -1135,7 +1135,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>419.0596946068497</v>
@@ -1147,7 +1147,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>255.2318698823815</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>186.5146679205617</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
@@ -1302,16 +1302,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>167.8164790129224</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
@@ -1356,7 +1356,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>3.554365680750038</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>161.344725770047</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
@@ -1384,13 +1384,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>178.6464323367727</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1533,22 +1533,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399249</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>40.77490860721769</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>178.6464323367727</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
@@ -1770,22 +1770,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1864,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>111.6184430578616</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>168.4336970060565</v>
@@ -2058,7 +2058,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -2244,13 +2244,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>51.58543740429501</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2481,22 +2481,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2718,22 +2718,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>154.8833258811978</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -2955,19 +2955,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>260.444681387164</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3192,13 +3192,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>104.9037564455526</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3322,7 +3322,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U35" t="n">
-        <v>255.7713603095518</v>
+        <v>255.771360309553</v>
       </c>
       <c r="V35" t="n">
         <v>353.914520725013</v>
@@ -3523,7 +3523,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3666,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>180.0196592840957</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
@@ -3751,10 +3751,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>91.31167109570151</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>178.6464323367727</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3966,7 +3966,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>157.086062247445</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>168.6518528275314</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
@@ -3994,10 +3994,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>178.6464323367727</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4149,7 +4149,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>96.44420510686376</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1020.453694912912</v>
+        <v>1773.192229807262</v>
       </c>
       <c r="C2" t="n">
-        <v>809.0020695358658</v>
+        <v>1346.291499820562</v>
       </c>
       <c r="D2" t="n">
-        <v>809.0020695358658</v>
+        <v>922.9988790055627</v>
       </c>
       <c r="E2" t="n">
-        <v>809.0020695358658</v>
+        <v>497.0219391534202</v>
       </c>
       <c r="F2" t="n">
-        <v>809.0020695358658</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6630071253144</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H2" t="n">
-        <v>106.7946285993492</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I2" t="n">
         <v>71.89775734282044</v>
       </c>
       <c r="J2" t="n">
-        <v>71.89775734282044</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K2" t="n">
-        <v>80.53897563800069</v>
+        <v>434.501216159716</v>
       </c>
       <c r="L2" t="n">
-        <v>970.2737227554036</v>
+        <v>434.501216159716</v>
       </c>
       <c r="M2" t="n">
-        <v>1860.008469872806</v>
+        <v>1324.235963277119</v>
       </c>
       <c r="N2" t="n">
-        <v>2749.743216990209</v>
+        <v>1923.907602950379</v>
       </c>
       <c r="O2" t="n">
-        <v>3594.887867141022</v>
+        <v>2769.052253101191</v>
       </c>
       <c r="P2" t="n">
-        <v>3594.887867141022</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="Q2" t="n">
-        <v>3594.887867141022</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="R2" t="n">
         <v>3594.887867141022</v>
@@ -4363,19 +4363,19 @@
         <v>3269.595002058795</v>
       </c>
       <c r="U2" t="n">
-        <v>3011.240092655207</v>
+        <v>3269.595002058795</v>
       </c>
       <c r="V2" t="n">
-        <v>2653.750677781457</v>
+        <v>3001.151942630698</v>
       </c>
       <c r="W2" t="n">
-        <v>2257.359328081804</v>
+        <v>2604.760592931045</v>
       </c>
       <c r="X2" t="n">
-        <v>1845.639329249551</v>
+        <v>2193.040594098792</v>
       </c>
       <c r="Y2" t="n">
-        <v>1440.302059204442</v>
+        <v>2193.040594098792</v>
       </c>
     </row>
     <row r="3">
@@ -4415,19 +4415,19 @@
         <v>71.89775734282044</v>
       </c>
       <c r="L3" t="n">
-        <v>526.9586330490793</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="M3" t="n">
-        <v>526.9586330490793</v>
+        <v>961.6325044602233</v>
       </c>
       <c r="N3" t="n">
-        <v>526.9586330490793</v>
+        <v>991.1041099118586</v>
       </c>
       <c r="O3" t="n">
-        <v>1416.439911060551</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="P3" t="n">
-        <v>1416.439911060551</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q3" t="n">
         <v>1880.58538792333</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2497.65596225213</v>
+        <v>415.732094689344</v>
       </c>
       <c r="C4" t="n">
-        <v>2325.683399131046</v>
+        <v>243.75953156826</v>
       </c>
       <c r="D4" t="n">
-        <v>2162.366626257817</v>
+        <v>243.75953156826</v>
       </c>
       <c r="E4" t="n">
-        <v>1996.158420410671</v>
+        <v>243.75953156826</v>
       </c>
       <c r="F4" t="n">
-        <v>1824.296646185231</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G4" t="n">
-        <v>1658.039676479463</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H4" t="n">
-        <v>1514.243407987618</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I4" t="n">
-        <v>1414.474839727893</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J4" t="n">
-        <v>1471.966167952051</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K4" t="n">
-        <v>1698.493769157889</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L4" t="n">
-        <v>2053.183090452309</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M4" t="n">
-        <v>2444.36888542256</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N4" t="n">
-        <v>2821.860396298596</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O4" t="n">
-        <v>3177.288524978359</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P4" t="n">
-        <v>3467.88773690026</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q4" t="n">
-        <v>3594.887867141022</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R4" t="n">
-        <v>3594.887867141022</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S4" t="n">
-        <v>3594.887867141022</v>
+        <v>2154.892395759116</v>
       </c>
       <c r="T4" t="n">
-        <v>3594.887867141022</v>
+        <v>1911.553047985016</v>
       </c>
       <c r="U4" t="n">
-        <v>3594.887867141022</v>
+        <v>1631.368599485321</v>
       </c>
       <c r="V4" t="n">
-        <v>3431.580999656136</v>
+        <v>1349.657132093349</v>
       </c>
       <c r="W4" t="n">
-        <v>3156.728595828649</v>
+        <v>1074.804728265862</v>
       </c>
       <c r="X4" t="n">
-        <v>2914.164699274454</v>
+        <v>832.2408317116676</v>
       </c>
       <c r="Y4" t="n">
-        <v>2687.821930964196</v>
+        <v>605.8980634014097</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1645.083668481085</v>
+        <v>2510.296542000307</v>
       </c>
       <c r="C5" t="n">
-        <v>1218.182938494385</v>
+        <v>2083.395812013608</v>
       </c>
       <c r="D5" t="n">
-        <v>794.8903176793854</v>
+        <v>1660.103191198608</v>
       </c>
       <c r="E5" t="n">
-        <v>794.8903176793854</v>
+        <v>1234.126251346466</v>
       </c>
       <c r="F5" t="n">
-        <v>369.7661358687856</v>
+        <v>809.0020695358658</v>
       </c>
       <c r="G5" t="n">
-        <v>369.7661358687856</v>
+        <v>404.6630071253144</v>
       </c>
       <c r="H5" t="n">
-        <v>71.89775734282044</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="I5" t="n">
         <v>71.89775734282044</v>
       </c>
       <c r="J5" t="n">
-        <v>71.89775734282044</v>
+        <v>210.1753178133137</v>
       </c>
       <c r="K5" t="n">
-        <v>80.53897563800069</v>
+        <v>925.6836257888127</v>
       </c>
       <c r="L5" t="n">
-        <v>970.2737227554036</v>
+        <v>1815.418372906216</v>
       </c>
       <c r="M5" t="n">
-        <v>1860.008469872806</v>
+        <v>2705.153120023619</v>
       </c>
       <c r="N5" t="n">
-        <v>2749.743216990209</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="O5" t="n">
         <v>3594.887867141022</v>
@@ -4594,25 +4594,25 @@
         <v>3594.887867141022</v>
       </c>
       <c r="S5" t="n">
-        <v>3594.887867141022</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T5" t="n">
-        <v>3373.962296185655</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="U5" t="n">
-        <v>3115.607386782067</v>
+        <v>3341.86490512409</v>
       </c>
       <c r="V5" t="n">
-        <v>2758.117971908317</v>
+        <v>3341.86490512409</v>
       </c>
       <c r="W5" t="n">
-        <v>2361.726622208664</v>
+        <v>3341.86490512409</v>
       </c>
       <c r="X5" t="n">
-        <v>2064.932032772615</v>
+        <v>2930.144906291837</v>
       </c>
       <c r="Y5" t="n">
-        <v>2064.932032772615</v>
+        <v>2930.144906291837</v>
       </c>
     </row>
     <row r="6">
@@ -4649,19 +4649,19 @@
         <v>71.89775734282044</v>
       </c>
       <c r="K6" t="n">
-        <v>71.89775734282044</v>
+        <v>327.5888628019261</v>
       </c>
       <c r="L6" t="n">
-        <v>71.89775734282044</v>
+        <v>1164.387670884832</v>
       </c>
       <c r="M6" t="n">
-        <v>961.6325044602233</v>
+        <v>1164.387670884832</v>
       </c>
       <c r="N6" t="n">
-        <v>991.1041099118586</v>
+        <v>1164.387670884832</v>
       </c>
       <c r="O6" t="n">
-        <v>1880.58538792333</v>
+        <v>1164.387670884832</v>
       </c>
       <c r="P6" t="n">
         <v>1880.58538792333</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>573.3952991842801</v>
+        <v>415.732094689344</v>
       </c>
       <c r="C7" t="n">
-        <v>401.4227360631962</v>
+        <v>243.75953156826</v>
       </c>
       <c r="D7" t="n">
-        <v>238.1059631899669</v>
+        <v>243.75953156826</v>
       </c>
       <c r="E7" t="n">
-        <v>71.89775734282044</v>
+        <v>243.75953156826</v>
       </c>
       <c r="F7" t="n">
         <v>71.89775734282044</v>
@@ -4752,25 +4752,25 @@
         <v>2252.310784755949</v>
       </c>
       <c r="S7" t="n">
-        <v>2252.310784755949</v>
+        <v>2154.892395759116</v>
       </c>
       <c r="T7" t="n">
-        <v>2069.216252479952</v>
+        <v>1911.553047985016</v>
       </c>
       <c r="U7" t="n">
-        <v>1789.031803980257</v>
+        <v>1631.368599485321</v>
       </c>
       <c r="V7" t="n">
-        <v>1507.320336588285</v>
+        <v>1349.657132093349</v>
       </c>
       <c r="W7" t="n">
-        <v>1232.467932760798</v>
+        <v>1074.804728265862</v>
       </c>
       <c r="X7" t="n">
-        <v>989.9040362066037</v>
+        <v>832.2408317116676</v>
       </c>
       <c r="Y7" t="n">
-        <v>763.5612678963457</v>
+        <v>605.8980634014097</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1773.192229807262</v>
+        <v>1604.101469398726</v>
       </c>
       <c r="C8" t="n">
-        <v>1346.291499820562</v>
+        <v>1604.101469398726</v>
       </c>
       <c r="D8" t="n">
-        <v>922.9988790055627</v>
+        <v>1180.808848583726</v>
       </c>
       <c r="E8" t="n">
-        <v>497.0219391534202</v>
+        <v>754.8319087315834</v>
       </c>
       <c r="F8" t="n">
-        <v>71.89775734282044</v>
+        <v>329.7077269209836</v>
       </c>
       <c r="G8" t="n">
         <v>71.89775734282044</v>
@@ -4810,10 +4810,10 @@
         <v>787.4060653183195</v>
       </c>
       <c r="L8" t="n">
-        <v>787.4060653183195</v>
+        <v>1585.378458328099</v>
       </c>
       <c r="M8" t="n">
-        <v>787.4060653183195</v>
+        <v>1585.378458328099</v>
       </c>
       <c r="N8" t="n">
         <v>1585.378458328099</v>
@@ -4840,16 +4840,16 @@
         <v>3594.887867141022</v>
       </c>
       <c r="V8" t="n">
-        <v>3406.489212675808</v>
+        <v>3237.398452267271</v>
       </c>
       <c r="W8" t="n">
-        <v>3010.097862976154</v>
+        <v>2841.007102567618</v>
       </c>
       <c r="X8" t="n">
-        <v>2598.377864143902</v>
+        <v>2429.287103735365</v>
       </c>
       <c r="Y8" t="n">
-        <v>2193.040594098792</v>
+        <v>2023.949833690256</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>71.89775734282044</v>
       </c>
       <c r="I9" t="n">
-        <v>71.89775734282044</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J9" t="n">
-        <v>71.89775734282044</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="K9" t="n">
-        <v>71.89775734282044</v>
+        <v>618.2228839373497</v>
       </c>
       <c r="L9" t="n">
-        <v>71.89775734282044</v>
+        <v>618.2228839373497</v>
       </c>
       <c r="M9" t="n">
-        <v>961.6325044602233</v>
+        <v>618.2228839373497</v>
       </c>
       <c r="N9" t="n">
-        <v>1851.367251577626</v>
+        <v>618.2228839373497</v>
       </c>
       <c r="O9" t="n">
-        <v>1880.58538792333</v>
+        <v>618.2228839373497</v>
       </c>
       <c r="P9" t="n">
-        <v>1880.58538792333</v>
+        <v>1334.420600975848</v>
       </c>
       <c r="Q9" t="n">
-        <v>1880.58538792333</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="R9" t="n">
         <v>1880.58538792333</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>343.6388887236285</v>
+        <v>581.9890643951119</v>
       </c>
       <c r="C10" t="n">
-        <v>171.6663256025445</v>
+        <v>410.0165012740279</v>
       </c>
       <c r="D10" t="n">
-        <v>171.6663256025445</v>
+        <v>410.0165012740279</v>
       </c>
       <c r="E10" t="n">
-        <v>171.6663256025445</v>
+        <v>410.0165012740279</v>
       </c>
       <c r="F10" t="n">
-        <v>171.6663256025445</v>
+        <v>238.1547270485883</v>
       </c>
       <c r="G10" t="n">
-        <v>171.6663256025445</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H10" t="n">
-        <v>171.6663256025445</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I10" t="n">
         <v>71.89775734282044</v>
@@ -4989,25 +4989,25 @@
         <v>2252.310784755949</v>
       </c>
       <c r="S10" t="n">
-        <v>2082.799189793401</v>
+        <v>2082.175737275084</v>
       </c>
       <c r="T10" t="n">
-        <v>1839.459842019301</v>
+        <v>1838.836389500983</v>
       </c>
       <c r="U10" t="n">
-        <v>1559.275393519605</v>
+        <v>1558.651941001288</v>
       </c>
       <c r="V10" t="n">
-        <v>1277.563926127634</v>
+        <v>1276.940473609317</v>
       </c>
       <c r="W10" t="n">
-        <v>1002.711522300147</v>
+        <v>1002.08806978183</v>
       </c>
       <c r="X10" t="n">
-        <v>760.1476257459522</v>
+        <v>998.4978014174355</v>
       </c>
       <c r="Y10" t="n">
-        <v>533.8048574356942</v>
+        <v>772.1550331071776</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2177.531292217814</v>
+        <v>1845.639329249551</v>
       </c>
       <c r="C11" t="n">
-        <v>1750.630562231114</v>
+        <v>1418.738599262851</v>
       </c>
       <c r="D11" t="n">
-        <v>1327.337941416114</v>
+        <v>1255.764128788056</v>
       </c>
       <c r="E11" t="n">
-        <v>901.3610015639716</v>
+        <v>829.7871889359142</v>
       </c>
       <c r="F11" t="n">
-        <v>476.2368197533718</v>
+        <v>404.6630071253144</v>
       </c>
       <c r="G11" t="n">
-        <v>71.89775734282044</v>
+        <v>404.6630071253144</v>
       </c>
       <c r="H11" t="n">
-        <v>71.89775734282044</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="I11" t="n">
         <v>71.89775734282044</v>
@@ -5047,46 +5047,46 @@
         <v>787.4060653183195</v>
       </c>
       <c r="L11" t="n">
-        <v>787.4060653183195</v>
+        <v>1467.822123446196</v>
       </c>
       <c r="M11" t="n">
-        <v>1677.140812435722</v>
+        <v>1467.822123446196</v>
       </c>
       <c r="N11" t="n">
-        <v>2430.523108478911</v>
+        <v>1467.822123446196</v>
       </c>
       <c r="O11" t="n">
-        <v>2430.523108478911</v>
+        <v>2312.966773597008</v>
       </c>
       <c r="P11" t="n">
-        <v>3138.802387636838</v>
+        <v>3021.246052754936</v>
       </c>
       <c r="Q11" t="n">
-        <v>3594.887867141022</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="R11" t="n">
         <v>3594.887867141022</v>
       </c>
       <c r="S11" t="n">
-        <v>3594.887867141022</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T11" t="n">
-        <v>3594.887867141022</v>
+        <v>3269.595002058795</v>
       </c>
       <c r="U11" t="n">
-        <v>3594.887867141022</v>
+        <v>3011.240092655207</v>
       </c>
       <c r="V11" t="n">
-        <v>3594.887867141022</v>
+        <v>2653.750677781457</v>
       </c>
       <c r="W11" t="n">
-        <v>3414.436925386706</v>
+        <v>2257.359328081804</v>
       </c>
       <c r="X11" t="n">
-        <v>3002.716926554453</v>
+        <v>1845.639329249551</v>
       </c>
       <c r="Y11" t="n">
-        <v>2597.379656509343</v>
+        <v>1845.639329249551</v>
       </c>
     </row>
     <row r="12">
@@ -5123,25 +5123,25 @@
         <v>71.89775734282044</v>
       </c>
       <c r="K12" t="n">
-        <v>662.38268391116</v>
+        <v>327.5888628019261</v>
       </c>
       <c r="L12" t="n">
-        <v>662.38268391116</v>
+        <v>1164.387670884832</v>
       </c>
       <c r="M12" t="n">
-        <v>662.38268391116</v>
+        <v>1164.387670884832</v>
       </c>
       <c r="N12" t="n">
-        <v>1552.117431028563</v>
+        <v>1164.387670884832</v>
       </c>
       <c r="O12" t="n">
-        <v>1552.117431028563</v>
+        <v>1164.387670884832</v>
       </c>
       <c r="P12" t="n">
-        <v>1798.566077838627</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q12" t="n">
-        <v>1798.566077838627</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R12" t="n">
         <v>1880.58538792333</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1155.078879867057</v>
+        <v>343.015436205311</v>
       </c>
       <c r="C13" t="n">
-        <v>983.1063167459732</v>
+        <v>171.042873084227</v>
       </c>
       <c r="D13" t="n">
-        <v>819.7895438727439</v>
+        <v>171.042873084227</v>
       </c>
       <c r="E13" t="n">
-        <v>653.5813380255975</v>
+        <v>171.042873084227</v>
       </c>
       <c r="F13" t="n">
-        <v>481.7195638001579</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G13" t="n">
-        <v>315.4625940943901</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H13" t="n">
-        <v>171.6663256025445</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I13" t="n">
         <v>71.89775734282044</v>
@@ -5226,25 +5226,25 @@
         <v>2252.310784755949</v>
       </c>
       <c r="S13" t="n">
-        <v>2252.310784755949</v>
+        <v>2082.175737275084</v>
       </c>
       <c r="T13" t="n">
-        <v>2252.310784755949</v>
+        <v>1838.836389500983</v>
       </c>
       <c r="U13" t="n">
-        <v>2252.310784755949</v>
+        <v>1558.651941001288</v>
       </c>
       <c r="V13" t="n">
-        <v>2089.003917271063</v>
+        <v>1276.940473609317</v>
       </c>
       <c r="W13" t="n">
-        <v>1814.151513443576</v>
+        <v>1002.08806978183</v>
       </c>
       <c r="X13" t="n">
-        <v>1571.587616889381</v>
+        <v>759.5241732276346</v>
       </c>
       <c r="Y13" t="n">
-        <v>1345.244848579123</v>
+        <v>533.1814049173767</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2177.531292217814</v>
+        <v>2212.428163474342</v>
       </c>
       <c r="C14" t="n">
-        <v>1750.630562231114</v>
+        <v>1785.527433487643</v>
       </c>
       <c r="D14" t="n">
-        <v>1327.337941416114</v>
+        <v>1362.234812672643</v>
       </c>
       <c r="E14" t="n">
-        <v>901.3610015639716</v>
+        <v>936.2578728205004</v>
       </c>
       <c r="F14" t="n">
-        <v>476.2368197533718</v>
+        <v>511.1336910099006</v>
       </c>
       <c r="G14" t="n">
-        <v>71.89775734282044</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="H14" t="n">
-        <v>71.89775734282044</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="I14" t="n">
         <v>71.89775734282044</v>
       </c>
       <c r="J14" t="n">
-        <v>71.89775734282044</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K14" t="n">
-        <v>71.89775734282044</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L14" t="n">
-        <v>961.6325044602233</v>
+        <v>1585.378458328099</v>
       </c>
       <c r="M14" t="n">
-        <v>1851.367251577626</v>
+        <v>1585.378458328099</v>
       </c>
       <c r="N14" t="n">
-        <v>2741.101998695029</v>
+        <v>1585.378458328099</v>
       </c>
       <c r="O14" t="n">
-        <v>3586.246648845841</v>
+        <v>2430.523108478911</v>
       </c>
       <c r="P14" t="n">
-        <v>3594.887867141022</v>
+        <v>3138.802387636838</v>
       </c>
       <c r="Q14" t="n">
         <v>3594.887867141022</v>
@@ -5305,25 +5305,25 @@
         <v>3594.887867141022</v>
       </c>
       <c r="S14" t="n">
-        <v>3594.887867141022</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T14" t="n">
-        <v>3594.887867141022</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="U14" t="n">
-        <v>3594.887867141022</v>
+        <v>3449.333796643235</v>
       </c>
       <c r="V14" t="n">
-        <v>3594.887867141022</v>
+        <v>3449.333796643235</v>
       </c>
       <c r="W14" t="n">
-        <v>3414.436925386706</v>
+        <v>3449.333796643235</v>
       </c>
       <c r="X14" t="n">
-        <v>3002.716926554453</v>
+        <v>3037.613797810982</v>
       </c>
       <c r="Y14" t="n">
-        <v>2597.379656509343</v>
+        <v>2632.276527765873</v>
       </c>
     </row>
     <row r="15">
@@ -5363,22 +5363,22 @@
         <v>71.89775734282044</v>
       </c>
       <c r="L15" t="n">
-        <v>71.89775734282044</v>
+        <v>908.6965654257266</v>
       </c>
       <c r="M15" t="n">
-        <v>71.89775734282044</v>
+        <v>1798.431312543129</v>
       </c>
       <c r="N15" t="n">
-        <v>961.6325044602233</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="O15" t="n">
-        <v>1798.566077838627</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="P15" t="n">
-        <v>1798.566077838627</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q15" t="n">
-        <v>1798.566077838627</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R15" t="n">
         <v>1880.58538792333</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1155.078879867057</v>
+        <v>415.732094689344</v>
       </c>
       <c r="C16" t="n">
-        <v>983.1063167459732</v>
+        <v>243.75953156826</v>
       </c>
       <c r="D16" t="n">
-        <v>819.7895438727439</v>
+        <v>243.75953156826</v>
       </c>
       <c r="E16" t="n">
-        <v>653.5813380255975</v>
+        <v>243.75953156826</v>
       </c>
       <c r="F16" t="n">
-        <v>481.7195638001579</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G16" t="n">
-        <v>315.4625940943901</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H16" t="n">
-        <v>171.6663256025445</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I16" t="n">
         <v>71.89775734282044</v>
@@ -5463,25 +5463,25 @@
         <v>2252.310784755949</v>
       </c>
       <c r="S16" t="n">
-        <v>2252.310784755949</v>
+        <v>2154.892395759116</v>
       </c>
       <c r="T16" t="n">
-        <v>2252.310784755949</v>
+        <v>1911.553047985016</v>
       </c>
       <c r="U16" t="n">
-        <v>2252.310784755949</v>
+        <v>1631.368599485321</v>
       </c>
       <c r="V16" t="n">
-        <v>2089.003917271063</v>
+        <v>1349.657132093349</v>
       </c>
       <c r="W16" t="n">
-        <v>1814.151513443576</v>
+        <v>1074.804728265862</v>
       </c>
       <c r="X16" t="n">
-        <v>1571.587616889381</v>
+        <v>832.2408317116676</v>
       </c>
       <c r="Y16" t="n">
-        <v>1345.244848579123</v>
+        <v>605.8980634014097</v>
       </c>
     </row>
     <row r="17">
@@ -5491,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>817.8110213813276</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L17" t="n">
-        <v>1747.436069000604</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M17" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N17" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5551,16 +5551,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5600,16 +5600,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M18" t="n">
-        <v>821.6753975134684</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P18" t="n">
         <v>1910.990343986338</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>796.7321961672538</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C19" t="n">
-        <v>796.7321961672538</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D19" t="n">
-        <v>796.7321961672538</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886057</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F19" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U19" t="n">
-        <v>1822.202732251165</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V19" t="n">
-        <v>1540.491264859194</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W19" t="n">
-        <v>1265.638861031707</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X19" t="n">
-        <v>1023.074964477512</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y19" t="n">
-        <v>796.7321961672538</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="20">
@@ -5752,13 +5752,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1007.532766690843</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M20" t="n">
         <v>2011.818868109901</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C21" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D21" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E21" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F21" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G21" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H21" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>3306.448039710919</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M21" t="n">
-        <v>4025.820723818557</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N21" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O21" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P21" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q21" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R21" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S21" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T21" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U21" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V21" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W21" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X21" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y21" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3158.801708427964</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>2986.82914530688</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>2934.722642878299</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>2934.722642878299</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>4897.962009497735</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T22" t="n">
-        <v>4654.622661723635</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>4374.43821322394</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>4092.726745831969</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>3817.874342004482</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>3575.310445450287</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>3348.967677140029</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C24" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D24" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E24" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F24" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G24" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>3306.448039710919</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>3306.448039710919</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L24" t="n">
-        <v>3306.448039710919</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M24" t="n">
-        <v>4362.434577686964</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N24" t="n">
-        <v>5115.135670291427</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="O24" t="n">
-        <v>5115.135670291427</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P24" t="n">
-        <v>5115.135670291427</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>5115.135670291427</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S24" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T24" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U24" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V24" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W24" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X24" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y24" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6174,25 +6174,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T25" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>2119.408873334071</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6226,16 +6226,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N26" t="n">
         <v>2988.069926596602</v>
@@ -6305,22 +6305,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>374.0002026854196</v>
+        <v>140.1622235167214</v>
       </c>
       <c r="K27" t="n">
-        <v>964.4851292537592</v>
+        <v>730.647150085061</v>
       </c>
       <c r="L27" t="n">
-        <v>964.4851292537592</v>
+        <v>730.647150085061</v>
       </c>
       <c r="M27" t="n">
-        <v>964.4851292537592</v>
+        <v>730.647150085061</v>
       </c>
       <c r="N27" t="n">
-        <v>964.4851292537592</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O27" t="n">
-        <v>964.4851292537592</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P27" t="n">
         <v>1446.844867123559</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6411,25 +6411,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>2001.004273426986</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6463,16 +6463,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>292.0244587153436</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>1007.532766690843</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N29" t="n">
         <v>2988.069926596602</v>
@@ -6539,31 +6539,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J30" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K30" t="n">
-        <v>971.931772215671</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L30" t="n">
-        <v>971.931772215671</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M30" t="n">
-        <v>971.931772215671</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N30" t="n">
-        <v>971.931772215671</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O30" t="n">
-        <v>971.931772215671</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="P30" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1085.715267670341</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>913.7427045492574</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>750.4259316760281</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>584.2177258288816</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
         <v>102.3027134058285</v>
@@ -6648,25 +6648,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>2019.640305074347</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>1744.78790124686</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>1502.224004692665</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>1275.881236382407</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6706,22 +6706,22 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1180.414480198223</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M32" t="n">
-        <v>2184.700581617281</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N32" t="n">
-        <v>3105.626261478504</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6776,25 +6776,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J33" t="n">
-        <v>109.7493563677404</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K33" t="n">
-        <v>700.2342829360799</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L33" t="n">
-        <v>1194.79262694784</v>
+        <v>1801.283937336665</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.79262694784</v>
+        <v>1801.283937336665</v>
       </c>
       <c r="N33" t="n">
-        <v>1194.79262694784</v>
+        <v>1801.283937336665</v>
       </c>
       <c r="O33" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P33" t="n">
         <v>1910.990343986338</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3270.011978872612</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>3098.039415751528</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>2934.722642878299</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>2934.722642878299</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>5009.172279942384</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>4765.832932168284</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>4485.648483668589</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>4203.937016276617</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>3929.08461244913</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>3686.520715894936</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>3460.177947584677</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6925,40 +6925,40 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>195.4640539534684</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>195.4640539534684</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1125.089101572745</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2129.375202991803</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N35" t="n">
-        <v>3105.626261478504</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291427</v>
@@ -7013,16 +7013,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K36" t="n">
-        <v>855.0038060102931</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>855.0038060102931</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M36" t="n">
         <v>1910.990343986338</v>
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
@@ -7183,19 +7183,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2974.519853142615</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N38" t="n">
-        <v>3950.770911629316</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291427</v>
@@ -7210,16 +7210,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="39">
@@ -7259,10 +7259,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M39" t="n">
-        <v>821.6753975134684</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N39" t="n">
         <v>1910.990343986338</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7356,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T40" t="n">
-        <v>2065.542080025265</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U40" t="n">
-        <v>2065.542080025265</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V40" t="n">
-        <v>1783.830612633294</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W40" t="n">
-        <v>1783.830612633294</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X40" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y40" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1440.302059204442</v>
+        <v>2177.531292217814</v>
       </c>
       <c r="C41" t="n">
-        <v>1013.401329217742</v>
+        <v>1750.630562231114</v>
       </c>
       <c r="D41" t="n">
-        <v>590.1087084027422</v>
+        <v>1327.337941416114</v>
       </c>
       <c r="E41" t="n">
-        <v>164.1317685505998</v>
+        <v>901.3610015639716</v>
       </c>
       <c r="F41" t="n">
-        <v>71.89775734282044</v>
+        <v>476.2368197533718</v>
       </c>
       <c r="G41" t="n">
         <v>71.89775734282044</v>
@@ -7417,19 +7417,19 @@
         <v>1150.009524135215</v>
       </c>
       <c r="L41" t="n">
-        <v>1996.873840865691</v>
+        <v>1540.788361361508</v>
       </c>
       <c r="M41" t="n">
-        <v>1996.873840865691</v>
+        <v>2430.523108478911</v>
       </c>
       <c r="N41" t="n">
-        <v>2886.608587983094</v>
+        <v>2430.523108478911</v>
       </c>
       <c r="O41" t="n">
-        <v>2886.608587983094</v>
+        <v>2430.523108478911</v>
       </c>
       <c r="P41" t="n">
-        <v>3594.887867141022</v>
+        <v>3138.802387636838</v>
       </c>
       <c r="Q41" t="n">
         <v>3594.887867141022</v>
@@ -7438,25 +7438,25 @@
         <v>3594.887867141022</v>
       </c>
       <c r="S41" t="n">
-        <v>3490.520573014162</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T41" t="n">
-        <v>3269.595002058795</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U41" t="n">
-        <v>3011.240092655207</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="V41" t="n">
-        <v>2653.750677781457</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="W41" t="n">
-        <v>2257.359328081804</v>
+        <v>3414.436925386706</v>
       </c>
       <c r="X41" t="n">
-        <v>1845.639329249551</v>
+        <v>3002.716926554453</v>
       </c>
       <c r="Y41" t="n">
-        <v>1440.302059204442</v>
+        <v>2597.379656509343</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>71.89775734282044</v>
       </c>
       <c r="I42" t="n">
-        <v>71.89775734282044</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J42" t="n">
-        <v>343.5952466224115</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="K42" t="n">
-        <v>934.0801731907511</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="L42" t="n">
-        <v>934.0801731907511</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="M42" t="n">
-        <v>934.0801731907511</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="N42" t="n">
-        <v>934.0801731907511</v>
+        <v>1240.776636701726</v>
       </c>
       <c r="O42" t="n">
-        <v>934.0801731907511</v>
+        <v>1240.776636701726</v>
       </c>
       <c r="P42" t="n">
-        <v>1416.439911060551</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q42" t="n">
         <v>1880.58538792333</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>553.8127697658734</v>
+        <v>415.732094689344</v>
       </c>
       <c r="C43" t="n">
-        <v>553.8127697658734</v>
+        <v>243.75953156826</v>
       </c>
       <c r="D43" t="n">
-        <v>553.8127697658734</v>
+        <v>243.75953156826</v>
       </c>
       <c r="E43" t="n">
-        <v>553.8127697658734</v>
+        <v>243.75953156826</v>
       </c>
       <c r="F43" t="n">
-        <v>381.9509955404339</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G43" t="n">
-        <v>215.694025834666</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H43" t="n">
         <v>71.89775734282044</v>
@@ -7593,28 +7593,28 @@
         <v>2252.310784755949</v>
       </c>
       <c r="R43" t="n">
-        <v>2205.272171443122</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S43" t="n">
-        <v>2035.137123962257</v>
+        <v>2154.892395759116</v>
       </c>
       <c r="T43" t="n">
-        <v>1791.797776188157</v>
+        <v>1911.553047985016</v>
       </c>
       <c r="U43" t="n">
-        <v>1511.613327688461</v>
+        <v>1631.368599485321</v>
       </c>
       <c r="V43" t="n">
-        <v>1229.90186029649</v>
+        <v>1349.657132093349</v>
       </c>
       <c r="W43" t="n">
-        <v>955.0494564690027</v>
+        <v>1074.804728265862</v>
       </c>
       <c r="X43" t="n">
-        <v>712.4855599148078</v>
+        <v>832.2408317116676</v>
       </c>
       <c r="Y43" t="n">
-        <v>553.8127697658734</v>
+        <v>605.8980634014097</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2257.359328081804</v>
+        <v>2177.531292217814</v>
       </c>
       <c r="C44" t="n">
-        <v>1830.458598095104</v>
+        <v>1750.630562231114</v>
       </c>
       <c r="D44" t="n">
-        <v>1660.103191198608</v>
+        <v>1327.337941416114</v>
       </c>
       <c r="E44" t="n">
-        <v>1234.126251346466</v>
+        <v>901.3610015639716</v>
       </c>
       <c r="F44" t="n">
-        <v>809.0020695358658</v>
+        <v>476.2368197533718</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6630071253144</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H44" t="n">
-        <v>106.7946285993492</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I44" t="n">
         <v>71.89775734282044</v>
       </c>
       <c r="J44" t="n">
-        <v>434.501216159716</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K44" t="n">
-        <v>695.6437112106956</v>
+        <v>787.4060653183195</v>
       </c>
       <c r="L44" t="n">
-        <v>695.6437112106956</v>
+        <v>1585.378458328099</v>
       </c>
       <c r="M44" t="n">
         <v>1585.378458328099</v>
@@ -7675,25 +7675,25 @@
         <v>3594.887867141022</v>
       </c>
       <c r="S44" t="n">
-        <v>3490.520573014162</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T44" t="n">
-        <v>3269.595002058795</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U44" t="n">
-        <v>3011.240092655207</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="V44" t="n">
-        <v>2653.750677781457</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="W44" t="n">
-        <v>2257.359328081804</v>
+        <v>3414.436925386706</v>
       </c>
       <c r="X44" t="n">
-        <v>2257.359328081804</v>
+        <v>3002.716926554453</v>
       </c>
       <c r="Y44" t="n">
-        <v>2257.359328081804</v>
+        <v>2597.379656509343</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>71.89775734282044</v>
       </c>
       <c r="J45" t="n">
-        <v>343.5952466224115</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K45" t="n">
-        <v>934.0801731907511</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L45" t="n">
-        <v>934.0801731907511</v>
+        <v>908.6965654257266</v>
       </c>
       <c r="M45" t="n">
-        <v>934.0801731907511</v>
+        <v>1798.431312543129</v>
       </c>
       <c r="N45" t="n">
-        <v>934.0801731907511</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="O45" t="n">
-        <v>934.0801731907511</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="P45" t="n">
-        <v>1416.439911060551</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q45" t="n">
         <v>1880.58538792333</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.1504836861761</v>
+        <v>415.732094689344</v>
       </c>
       <c r="C46" t="n">
-        <v>341.1779205650921</v>
+        <v>243.75953156826</v>
       </c>
       <c r="D46" t="n">
-        <v>341.1779205650921</v>
+        <v>243.75953156826</v>
       </c>
       <c r="E46" t="n">
-        <v>341.1779205650921</v>
+        <v>243.75953156826</v>
       </c>
       <c r="F46" t="n">
-        <v>169.3161463396525</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G46" t="n">
         <v>71.89775734282044</v>
@@ -7833,25 +7833,25 @@
         <v>2252.310784755949</v>
       </c>
       <c r="S46" t="n">
-        <v>2252.310784755949</v>
+        <v>2154.892395759116</v>
       </c>
       <c r="T46" t="n">
-        <v>2008.971436981848</v>
+        <v>1911.553047985016</v>
       </c>
       <c r="U46" t="n">
-        <v>1728.786988482153</v>
+        <v>1631.368599485321</v>
       </c>
       <c r="V46" t="n">
-        <v>1447.075521090182</v>
+        <v>1349.657132093349</v>
       </c>
       <c r="W46" t="n">
-        <v>1172.223117262695</v>
+        <v>1074.804728265862</v>
       </c>
       <c r="X46" t="n">
-        <v>929.6592207084997</v>
+        <v>832.2408317116676</v>
       </c>
       <c r="Y46" t="n">
-        <v>703.3164523982417</v>
+        <v>605.8980634014097</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>44.49310412327424</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>937.0340092178783</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
         <v>936.1532296846872</v>
       </c>
       <c r="N2" t="n">
-        <v>936.0015896197015</v>
+        <v>643.0085517973351</v>
       </c>
       <c r="O2" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q2" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8063,13 +8063,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>482.1725369225717</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>921.8187472975834</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>51.11232664953685</v>
       </c>
       <c r="O3" t="n">
         <v>921.6378271075471</v>
@@ -8078,7 +8078,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
         <v>23.67291939414415</v>
@@ -8215,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>169.0942629911352</v>
       </c>
       <c r="K5" t="n">
-        <v>44.49310412327424</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L5" t="n">
         <v>937.0340092178783</v>
@@ -8230,7 +8230,7 @@
         <v>936.0015896197015</v>
       </c>
       <c r="O5" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
@@ -8297,22 +8297,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>280.6730777314198</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M6" t="n">
-        <v>921.8187472975834</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>51.11232664953685</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
@@ -8458,13 +8458,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>844.3447626445209</v>
       </c>
       <c r="M8" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>843.312343046344</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
         <v>891.0724241548241</v>
@@ -8528,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>292.2790261091175</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>921.8187472975834</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>920.064994998797</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>52.685158758287</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8695,16 +8695,16 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>725.6009900365383</v>
       </c>
       <c r="M11" t="n">
-        <v>936.1532296846872</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>798.2718410598887</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
         <v>753.0089771212694</v>
@@ -8713,7 +8713,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8771,28 +8771,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>618.848654609434</v>
+        <v>280.6730777314198</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>920.064994998797</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>270.7088682857017</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>937.0340092178783</v>
+        <v>478.0786426274547</v>
       </c>
       <c r="M14" t="n">
-        <v>936.1532296846872</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>936.0015896197015</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>46.3038651386963</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
         <v>35.03264989479647</v>
@@ -9011,16 +9011,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M15" t="n">
-        <v>23.09678051232798</v>
+        <v>921.8187472975834</v>
       </c>
       <c r="N15" t="n">
-        <v>920.064994998797</v>
+        <v>104.326942738997</v>
       </c>
       <c r="O15" t="n">
-        <v>868.5593375791957</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
@@ -9029,7 +9029,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L17" t="n">
-        <v>977.3272420480539</v>
+        <v>586.4197136125407</v>
       </c>
       <c r="M17" t="n">
         <v>1051.861668373228</v>
@@ -9181,13 +9181,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9248,19 +9248,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M18" t="n">
-        <v>749.7358553685299</v>
+        <v>281.3706244104145</v>
       </c>
       <c r="N18" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
@@ -9400,16 +9400,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>952.6858336296069</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>877.2336749314295</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
@@ -9485,13 +9485,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M21" t="n">
-        <v>749.7358553685286</v>
+        <v>1004.802661823039</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,22 +9646,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
         <v>22.39923383333334</v>
@@ -9725,22 +9725,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>781.6471621574439</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>293.0516819980064</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9883,10 +9883,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>304.4845953330648</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
@@ -9953,7 +9953,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
-        <v>295.0530226965566</v>
+        <v>58.8530437382756</v>
       </c>
       <c r="K27" t="n">
         <v>618.848654609434</v>
@@ -9971,7 +9971,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>509.0028996591719</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
         <v>491.5808533018869</v>
@@ -10111,19 +10111,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>221.0580860608543</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J30" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
         <v>618.848654609434</v>
@@ -10208,13 +10208,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>501.4810380814832</v>
+        <v>700.5970200580485</v>
       </c>
       <c r="Q30" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10354,13 +10354,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>38.31204243262292</v>
+        <v>878.1144544646206</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
-        <v>967.5075822902267</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
@@ -10372,7 +10372,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,16 +10424,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>522.0689695543915</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M33" t="n">
         <v>23.09678051232798</v>
@@ -10442,10 +10442,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>133.9864418936091</v>
       </c>
       <c r="P33" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
@@ -10585,19 +10585,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>123.5223236751217</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
@@ -10609,7 +10609,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,19 +10661,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>500.7395978363249</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>1004.802661823039</v>
       </c>
       <c r="N36" t="n">
         <v>21.34302821354166</v>
@@ -10831,13 +10831,13 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>910.6437127227809</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O38" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
         <v>753.0089771212694</v>
@@ -10846,7 +10846,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10907,13 +10907,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M39" t="n">
-        <v>749.7358553685299</v>
+        <v>1004.802661823039</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
@@ -11065,13 +11065,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>893.7305441805782</v>
+        <v>433.0381406409993</v>
       </c>
       <c r="M41" t="n">
-        <v>37.43126289943181</v>
+        <v>936.1532296846872</v>
       </c>
       <c r="N41" t="n">
-        <v>936.0015896197015</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
         <v>37.3909593560241</v>
@@ -11080,7 +11080,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
         <v>35.03264989479647</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
@@ -11150,16 +11150,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>21.34302821354166</v>
+        <v>920.064994998797</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>509.0028996591719</v>
+        <v>668.0423070852369</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11296,16 +11296,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
-        <v>299.5448988261019</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>844.3447626445209</v>
       </c>
       <c r="M44" t="n">
-        <v>936.1532296846872</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
         <v>37.27962283444602</v>
@@ -11375,28 +11375,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M45" t="n">
-        <v>23.09678051232798</v>
+        <v>921.8187472975834</v>
       </c>
       <c r="N45" t="n">
-        <v>21.34302821354166</v>
+        <v>104.326942738997</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>509.0028996591719</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -22549,25 +22549,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>213.2946135635574</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22603,10 +22603,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>88.15589189119646</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22615,7 +22615,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -22710,22 +22710,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22755,16 +22755,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22792,19 +22792,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,22 +22834,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>108.6022490983806</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>113.776155302242</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>401.2838973446586</v>
@@ -22947,13 +22947,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
@@ -22992,10 +22992,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T7" t="n">
-        <v>59.64236734312274</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -23023,7 +23023,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -23035,7 +23035,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>145.0638019040643</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -23080,7 +23080,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>167.3998528044513</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23190,16 +23190,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23229,7 +23229,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0.6172179931341191</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23244,7 +23244,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>236.5838919079029</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>257.7149688368027</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>213.7810038658839</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>71.98949189919269</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,16 +23466,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>214.9964517023341</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>213.7810038658839</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,16 +23703,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>52.92768073081336</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>110.098167740202</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,16 +24414,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,19 +24651,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24888,16 +24888,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>18.44967133088738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -25125,7 +25125,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>63.52994056050389</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>60.1185983045572</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25639,10 +25639,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>329.5612688967922</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>294.8896947407055</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>213.7810038658839</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
@@ -25800,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
         <v>98.77088257712678</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>66.99327837971035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>250.4078417793183</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>213.7810038658839</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26037,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>68.15019490184642</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
@@ -26073,7 +26073,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>556192.5504710107</v>
+        <v>556192.5504710106</v>
       </c>
     </row>
     <row r="5">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>703068.710560905</v>
+        <v>703068.7105609049</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>703068.710560905</v>
+        <v>703068.7105609049</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>556192.5504710106</v>
+        <v>556192.5504710107</v>
       </c>
     </row>
     <row r="16">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>244543.6550785647</v>
+        <v>244543.6550785648</v>
       </c>
       <c r="C2" t="n">
         <v>244543.6550785646</v>
@@ -26325,7 +26325,7 @@
         <v>244543.6550785647</v>
       </c>
       <c r="F2" t="n">
-        <v>244543.6550785646</v>
+        <v>244543.6550785647</v>
       </c>
       <c r="G2" t="n">
         <v>309116.7217255959</v>
@@ -26334,13 +26334,13 @@
         <v>309116.7217255961</v>
       </c>
       <c r="I2" t="n">
-        <v>309116.721725596</v>
+        <v>309116.7217255961</v>
       </c>
       <c r="J2" t="n">
         <v>309116.721725596</v>
       </c>
       <c r="K2" t="n">
-        <v>309116.721725596</v>
+        <v>309116.7217255961</v>
       </c>
       <c r="L2" t="n">
         <v>309116.7217255959</v>
@@ -26349,13 +26349,13 @@
         <v>309116.7217255961</v>
       </c>
       <c r="N2" t="n">
-        <v>309116.721725596</v>
+        <v>309116.7217255961</v>
       </c>
       <c r="O2" t="n">
+        <v>244543.6550785647</v>
+      </c>
+      <c r="P2" t="n">
         <v>244543.6550785646</v>
-      </c>
-      <c r="P2" t="n">
-        <v>244543.6550785647</v>
       </c>
     </row>
     <row r="3">
@@ -26441,7 +26441,7 @@
         <v>29432.2870559115</v>
       </c>
       <c r="J4" t="n">
-        <v>29432.28705591151</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="K4" t="n">
         <v>29432.2870559115</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-168171.7759325118</v>
+        <v>-168516.3205340008</v>
       </c>
       <c r="C6" t="n">
-        <v>133010.6257424632</v>
+        <v>132666.0811409742</v>
       </c>
       <c r="D6" t="n">
-        <v>133010.6257424632</v>
+        <v>132666.0811409744</v>
       </c>
       <c r="E6" t="n">
-        <v>166638.2257424633</v>
+        <v>166293.6811409743</v>
       </c>
       <c r="F6" t="n">
-        <v>166638.2257424632</v>
+        <v>166293.6811409743</v>
       </c>
       <c r="G6" t="n">
-        <v>97765.09269963503</v>
+        <v>97714.06203745068</v>
       </c>
       <c r="H6" t="n">
-        <v>201934.3724812549</v>
+        <v>201883.3418190706</v>
       </c>
       <c r="I6" t="n">
-        <v>201934.3724812548</v>
+        <v>201883.3418190706</v>
       </c>
       <c r="J6" t="n">
-        <v>-33210.83779630653</v>
+        <v>-33261.86845849081</v>
       </c>
       <c r="K6" t="n">
-        <v>201934.3724812548</v>
+        <v>201883.3418190706</v>
       </c>
       <c r="L6" t="n">
-        <v>201934.3724812547</v>
+        <v>201883.3418190705</v>
       </c>
       <c r="M6" t="n">
-        <v>201934.3724812549</v>
+        <v>201883.3418190706</v>
       </c>
       <c r="N6" t="n">
-        <v>201934.3724812548</v>
+        <v>201883.3418190706</v>
       </c>
       <c r="O6" t="n">
-        <v>166638.2257424632</v>
+        <v>166293.6811409744</v>
       </c>
       <c r="P6" t="n">
-        <v>166638.2257424633</v>
+        <v>166293.6811409743</v>
       </c>
     </row>
   </sheetData>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>8.728503328464901</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>898.7219667852554</v>
       </c>
       <c r="N2" t="n">
-        <v>898.7219667852554</v>
+        <v>605.7289289628891</v>
       </c>
       <c r="O2" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34783,13 +34783,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>459.6574502083422</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>29.76929843599519</v>
       </c>
       <c r="O3" t="n">
         <v>898.4659373853249</v>
@@ -34798,7 +34798,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,10 +34935,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>139.6743035055487</v>
       </c>
       <c r="K5" t="n">
-        <v>8.728503328464901</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L5" t="n">
         <v>898.7219667852554</v>
@@ -34950,7 +34950,7 @@
         <v>898.7219667852554</v>
       </c>
       <c r="O5" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>258.2738438980865</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M6" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>29.76929843599519</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35178,13 +35178,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>806.032720211898</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>806.032720211898</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>853.6814647988001</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>29.51326903606477</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35415,16 +35415,16 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>687.2889476039154</v>
       </c>
       <c r="M11" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>760.9922182254427</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
         <v>715.433615311038</v>
@@ -35433,7 +35433,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,28 +35491,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>596.4494207761006</v>
+        <v>258.2738438980865</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>248.938027080873</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>898.7219667852554</v>
+        <v>439.7666001948318</v>
       </c>
       <c r="M14" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>8.728503328465001</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35731,16 +35731,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N15" t="n">
-        <v>898.7219667852554</v>
+        <v>82.98391452545532</v>
       </c>
       <c r="O15" t="n">
-        <v>845.3874478569735</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35749,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>939.015199615431</v>
+        <v>548.1076711799178</v>
       </c>
       <c r="M17" t="n">
         <v>1014.430405473796</v>
@@ -35901,13 +35901,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,19 +35968,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M18" t="n">
-        <v>726.6390748562019</v>
+        <v>258.2738438980865</v>
       </c>
       <c r="N18" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36120,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>914.373791196984</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
@@ -36205,13 +36205,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M21" t="n">
-        <v>726.6390748562006</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,22 +36366,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36445,22 +36445,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>760.3041339439022</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36603,10 +36603,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>267.053332433633</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>274.4419083632233</v>
+        <v>38.24192940494226</v>
       </c>
       <c r="K27" t="n">
         <v>596.4494207761006</v>
@@ -36691,7 +36691,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>487.2320584543432</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
         <v>468.8338150129084</v>
@@ -36831,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>191.6381265752677</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>596.4494207761006</v>
@@ -36928,13 +36928,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>479.7101968766545</v>
+        <v>678.8261788532199</v>
       </c>
       <c r="Q30" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37074,13 +37074,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>930.2279594557806</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
@@ -37092,7 +37092,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>499.553882840162</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37162,10 +37162,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>110.8145521713869</v>
       </c>
       <c r="P33" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>94.10236418953517</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
@@ -37329,7 +37329,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,19 +37381,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>478.3403640029916</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37551,13 +37551,13 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>873.2124498233492</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
         <v>715.433615311038</v>
@@ -37566,7 +37566,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,13 +37627,13 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M39" t="n">
-        <v>726.6390748562019</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37785,13 +37785,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>855.4185017479554</v>
+        <v>394.7260982083764</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N41" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37870,16 +37870,16 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>487.2320584543432</v>
+        <v>646.2714658804082</v>
       </c>
       <c r="Q42" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>263.7802980312926</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>806.032720211898</v>
       </c>
       <c r="M44" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>82.98391452545532</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>487.2320584543432</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
